--- a/AfDD_2025_Annex_Table_Tab13.xlsx
+++ b/AfDD_2025_Annex_Table_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3ACE4D-81CA-4A98-88BB-8C28BEBC197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62B4A7D-BFDE-4F8D-8026-8A3D0BCE2E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{41572880-0516-438E-A364-16D0D60F52FB}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2E5B8B3A-8021-452C-AA72-0549C1B3D2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="174">
   <si>
     <t>Table 13: Public finances</t>
   </si>
@@ -84,13 +84,13 @@
     <t>Angola*</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>BWA</t>
   </si>
   <si>
     <t>Botswana</t>
-  </si>
-  <si>
-    <t>Update will be coming soon</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -568,7 +568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,13 +637,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -943,7 +936,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1003,8 +996,17 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1015,9 +1017,6 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1027,15 +1026,6 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1054,25 +1044,25 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,31 +1140,31 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,19 +1185,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1246,25 +1236,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1272,9 +1262,9 @@
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
@@ -1559,11 +1549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD481669-19F3-493D-94CD-DEFCF045216B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81CC3-9B91-4405-A03E-8B04F3E1FB63}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1571,13 +1561,13 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.140625" style="115" customWidth="1"/>
-    <col min="8" max="11" width="14.140625" style="116" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="115" customWidth="1"/>
+    <col min="3" max="7" width="14.140625" style="114" customWidth="1"/>
+    <col min="8" max="11" width="14.140625" style="115" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="114" customWidth="1"/>
     <col min="13" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1592,7 +1582,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1630,875 +1620,1821 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="14">
+        <v>20.678929</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15">
+        <v>17.280417</v>
+      </c>
+      <c r="G3" s="16">
+        <v>74.292158999999998</v>
+      </c>
+      <c r="H3" s="17">
+        <v>17447.868236999999</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="18">
+        <v>14580.370257</v>
+      </c>
+      <c r="L3" s="16">
+        <v>62684.087850999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="20">
+        <v>30.592390000000002</v>
+      </c>
       <c r="D4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="21">
+        <v>33.047739</v>
+      </c>
+      <c r="G4" s="22">
+        <v>23.44605</v>
+      </c>
+      <c r="H4" s="23">
+        <v>5736.1286339999997</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="24">
+        <v>6196.51116</v>
+      </c>
+      <c r="L4" s="22">
+        <v>4396.176993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="20">
+        <v>25.081178999999999</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="26">
+        <v>29.672971</v>
+      </c>
+      <c r="G5" s="27">
+        <v>37.869599000000001</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1216.7254439999999</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="28">
+        <v>1439.4801399999999</v>
+      </c>
+      <c r="L5" s="27">
+        <v>1837.110831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="20">
+        <v>48.828324000000002</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="26">
+        <v>53.778160999999997</v>
+      </c>
+      <c r="G6" s="27">
+        <v>57.959195000000001</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1193.671452</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="28">
+        <v>1314.676612</v>
+      </c>
+      <c r="L6" s="27">
+        <v>1416.887377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="20">
+        <v>15.309303</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="26">
+        <v>23.651474</v>
+      </c>
+      <c r="G7" s="27">
+        <v>66.546333000000004</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1909.8145689999999</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="28">
+        <v>2950.489043</v>
+      </c>
+      <c r="L7" s="27">
+        <v>8301.5640970000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="20">
+        <v>26.889592</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="26">
+        <v>32.122157000000001</v>
+      </c>
+      <c r="G8" s="27">
+        <v>104.335579</v>
+      </c>
+      <c r="H8" s="23">
+        <v>4347.5251550000003</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="28">
+        <v>5193.5293670000001</v>
+      </c>
+      <c r="L8" s="27">
+        <v>16869.038331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="29">
+        <v>30.579414</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="26">
+        <v>39.261558999999998</v>
+      </c>
+      <c r="G9" s="27">
+        <v>69.603773000000004</v>
+      </c>
+      <c r="H9" s="30">
+        <v>3791.6262809999998</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="28">
+        <v>4868.1494670000002</v>
+      </c>
+      <c r="L9" s="27">
+        <v>8630.3647519999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="29">
+        <v>27.018170000000001</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="26">
+        <v>32.542152999999999</v>
+      </c>
+      <c r="G10" s="27">
+        <v>68.671756999999999</v>
+      </c>
+      <c r="H10" s="30">
+        <v>113686.517821</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="28">
+        <v>136930.22653099999</v>
+      </c>
+      <c r="L10" s="27">
+        <v>288955.65702699998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="20">
+        <v>22.368652999999998</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="21">
+        <v>30.503591</v>
+      </c>
+      <c r="G11" s="22">
+        <v>111.04661299999999</v>
+      </c>
+      <c r="H11" s="23">
+        <v>4942.6710419999999</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="24">
+        <v>6740.2007299999996</v>
+      </c>
+      <c r="L11" s="22">
+        <v>24537.323121000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39" t="s">
+      <c r="C12" s="32">
+        <v>15.34802</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="33">
+        <v>18.572858</v>
+      </c>
+      <c r="G12" s="34">
+        <v>58.171866999999999</v>
+      </c>
+      <c r="H12" s="35">
+        <v>5527.7535109999999</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="36">
+        <v>6689.213667</v>
+      </c>
+      <c r="L12" s="34">
+        <v>20951.220174999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="39">
+        <v>24.896981</v>
+      </c>
+      <c r="D13" s="40">
+        <v>21.626007000000001</v>
+      </c>
+      <c r="E13" s="40">
+        <v>0.14965999999999999</v>
+      </c>
+      <c r="F13" s="40">
+        <v>28.574259999999999</v>
+      </c>
+      <c r="G13" s="41">
+        <v>70.836164999999994</v>
+      </c>
+      <c r="H13" s="42">
+        <v>159800.30214499999</v>
+      </c>
+      <c r="I13" s="43">
+        <v>138527.878429</v>
+      </c>
+      <c r="J13" s="43">
+        <v>783.57396300000005</v>
+      </c>
+      <c r="K13" s="43">
+        <v>186902.846976</v>
+      </c>
+      <c r="L13" s="41">
+        <v>438579.43055400002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="29">
+        <v>25.093516999999999</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="26">
+        <v>30.335681000000001</v>
+      </c>
+      <c r="G14" s="27">
+        <v>66.467376000000002</v>
+      </c>
+      <c r="H14" s="30">
+        <v>842.05432900000005</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="28">
+        <v>1017.963779</v>
+      </c>
+      <c r="L14" s="27">
+        <v>2230.4224009999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="29">
+        <v>14.066687999999999</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="26">
+        <v>17.074221000000001</v>
+      </c>
+      <c r="G15" s="27">
+        <v>47.153602999999997</v>
+      </c>
+      <c r="H15" s="30">
+        <v>6335.016157</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="28">
+        <v>7689.4762890000002</v>
+      </c>
+      <c r="L15" s="27">
+        <v>21235.903549999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="24"/>
+      <c r="C16" s="29">
+        <v>13.664355</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="26">
+        <v>19.685497000000002</v>
+      </c>
+      <c r="G16" s="27">
+        <v>48.524895000000001</v>
+      </c>
+      <c r="H16" s="30">
+        <v>353.23569099999997</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="28">
+        <v>508.88754899999998</v>
+      </c>
+      <c r="L16" s="27">
+        <v>1254.4115750000001</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="48"/>
+      <c r="C17" s="45">
+        <v>11.753382</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="46">
+        <v>13.053660000000001</v>
+      </c>
+      <c r="G17" s="47">
+        <v>41.562809999999999</v>
+      </c>
+      <c r="H17" s="48">
+        <v>1984.0657229999999</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="49">
+        <v>2203.563122</v>
+      </c>
+      <c r="L17" s="47">
+        <v>7016.137549</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="48"/>
+      <c r="C18" s="45">
+        <v>22.564512000000001</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="46">
+        <v>20.935117000000002</v>
+      </c>
+      <c r="G18" s="47">
+        <v>97.764420999999999</v>
+      </c>
+      <c r="H18" s="48">
+        <v>3020.7707690000002</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="49">
+        <v>2802.6393750000002</v>
+      </c>
+      <c r="L18" s="47">
+        <v>13087.981184</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="30"/>
+      <c r="C19" s="20">
+        <v>12.963286</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="21">
+        <v>14.366540000000001</v>
+      </c>
+      <c r="G19" s="22">
+        <v>24.685264</v>
+      </c>
+      <c r="H19" s="23">
+        <v>7172.1842699999997</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="24">
+        <v>7948.5608540000003</v>
+      </c>
+      <c r="L19" s="22">
+        <v>13657.591183</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="48"/>
+      <c r="C20" s="45">
+        <v>15.367393</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="46">
+        <v>12.714874</v>
+      </c>
+      <c r="G20" s="47">
+        <v>42.293106000000002</v>
+      </c>
+      <c r="H20" s="48">
+        <v>1878.248681</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="49">
+        <v>1554.0499179999999</v>
+      </c>
+      <c r="L20" s="47">
+        <v>5169.1898819999997</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="48"/>
+      <c r="C21" s="45">
+        <v>15.327378</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="46">
+        <v>17.253909</v>
+      </c>
+      <c r="G21" s="47">
+        <v>72.944963999999999</v>
+      </c>
+      <c r="H21" s="48">
+        <v>2981.9653800000001</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="49">
+        <v>3356.7748630000001</v>
+      </c>
+      <c r="L21" s="47">
+        <v>14191.556728</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="54"/>
+      <c r="C22" s="51">
+        <v>24.116992</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="52">
+        <v>25.632504000000001</v>
+      </c>
+      <c r="G22" s="53">
+        <v>59.227938000000002</v>
+      </c>
+      <c r="H22" s="54">
+        <v>127.47744</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="55">
+        <v>135.488124</v>
+      </c>
+      <c r="L22" s="53">
+        <v>313.06664899999998</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="42"/>
+      <c r="C23" s="39">
+        <v>14.681854</v>
+      </c>
+      <c r="D23" s="40">
+        <v>10.112347</v>
+      </c>
+      <c r="E23" s="40">
+        <v>0.90790499999999996</v>
+      </c>
+      <c r="F23" s="40">
+        <v>16.257581999999999</v>
+      </c>
+      <c r="G23" s="41">
+        <v>46.549559000000002</v>
+      </c>
+      <c r="H23" s="42">
+        <v>24695.018438999999</v>
+      </c>
+      <c r="I23" s="43">
+        <v>16852.323808000001</v>
+      </c>
+      <c r="J23" s="43">
+        <v>1532.1207890000001</v>
+      </c>
+      <c r="K23" s="43">
+        <v>27217.403875</v>
+      </c>
+      <c r="L23" s="41">
+        <v>78156.260699999999</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="60"/>
+      <c r="C24" s="57">
+        <v>17.137846</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="58">
+        <v>19.951547999999999</v>
+      </c>
+      <c r="G24" s="59">
+        <v>26.275780999999998</v>
+      </c>
+      <c r="H24" s="60">
+        <v>218.17935499999999</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="61">
+        <v>254.00017299999999</v>
+      </c>
+      <c r="L24" s="59">
+        <v>334.51303799999999</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="24"/>
+      <c r="C25" s="29">
+        <v>20.069945000000001</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="26">
+        <v>23.124817</v>
+      </c>
+      <c r="G25" s="27">
+        <v>40.278438000000001</v>
+      </c>
+      <c r="H25" s="30">
+        <v>680.93247299999996</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="28">
+        <v>784.57807500000001</v>
+      </c>
+      <c r="L25" s="27">
+        <v>1366.565601</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="24"/>
+      <c r="C26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="24"/>
+      <c r="C27" s="29">
+        <v>11.031685</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="26">
+        <v>13.79874</v>
+      </c>
+      <c r="G27" s="27">
+        <v>53.771684999999998</v>
+      </c>
+      <c r="H27" s="30">
+        <v>10950.17506</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="28">
+        <v>13696.785005</v>
+      </c>
+      <c r="L27" s="27">
+        <v>53374.380634000001</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="24"/>
+      <c r="C28" s="29">
+        <v>16.819226</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="26">
+        <v>24.015398000000001</v>
+      </c>
+      <c r="G28" s="27">
+        <v>68.232211000000007</v>
+      </c>
+      <c r="H28" s="30">
+        <v>18480.13409</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="28">
+        <v>26386.932978000001</v>
+      </c>
+      <c r="L28" s="27">
+        <v>74970.181905000005</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="24"/>
+      <c r="C29" s="29">
+        <v>11.070459</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="26">
+        <v>13.897888999999999</v>
+      </c>
+      <c r="G29" s="27">
+        <v>49.537604000000002</v>
+      </c>
+      <c r="H29" s="30">
+        <v>1589.13474</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="28">
+        <v>1995.0047420000001</v>
+      </c>
+      <c r="L29" s="27">
+        <v>7110.9903270000004</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="24"/>
+      <c r="C30" s="29">
+        <v>26.366437999999999</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="26">
+        <v>30.809909000000001</v>
+      </c>
+      <c r="G30" s="27">
+        <v>93.836241000000001</v>
+      </c>
+      <c r="H30" s="30">
+        <v>3028.0136779999998</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="28">
+        <v>3538.31738</v>
+      </c>
+      <c r="L30" s="27">
+        <v>10776.481175000001</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="24"/>
+      <c r="C31" s="29">
+        <v>24.563303999999999</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="26">
+        <v>31.562935</v>
+      </c>
+      <c r="G31" s="27">
+        <v>67.251150999999993</v>
+      </c>
+      <c r="H31" s="30">
+        <v>2718.1813910000001</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="28">
+        <v>3492.762279</v>
+      </c>
+      <c r="L31" s="27">
+        <v>7442.0291729999999</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="24"/>
+      <c r="C32" s="29">
+        <v>33.072429999999997</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="26">
+        <v>38.827593999999998</v>
+      </c>
+      <c r="G32" s="27">
+        <v>71.248347999999993</v>
+      </c>
+      <c r="H32" s="30">
+        <v>492.73809</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="28">
+        <v>578.48287700000003</v>
+      </c>
+      <c r="L32" s="27">
+        <v>1061.5117929999999</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="24"/>
+      <c r="C33" s="29">
+        <v>3.9702250000000001</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="26">
+        <v>4.8522860000000003</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="30">
+        <v>376.53612399999997</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="28">
+        <v>460.190763</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="48"/>
+      <c r="C34" s="45">
+        <v>34.815942</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="46">
+        <v>44.114078999999997</v>
+      </c>
+      <c r="G34" s="47">
+        <v>51.086601999999999</v>
+      </c>
+      <c r="H34" s="48">
+        <v>2068.2246399999999</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="49">
+        <v>2620.5760749999999</v>
+      </c>
+      <c r="L34" s="47">
+        <v>3034.775486</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="24"/>
+      <c r="C35" s="29">
+        <v>9.5482940000000003</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="26">
+        <v>9.835502</v>
+      </c>
+      <c r="G35" s="27">
+        <v>189.63561899999999</v>
+      </c>
+      <c r="H35" s="30">
+        <v>3355.4590109999999</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="28">
+        <v>3456.3895040000002</v>
+      </c>
+      <c r="L35" s="27">
+        <v>66641.702019000004</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="24"/>
+      <c r="C36" s="29">
+        <v>14.856405000000001</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="26">
+        <v>18.402086000000001</v>
+      </c>
+      <c r="G36" s="27">
+        <v>43.394446000000002</v>
+      </c>
+      <c r="H36" s="30">
+        <v>10097.056353</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="28">
+        <v>12506.855031999999</v>
+      </c>
+      <c r="L36" s="27">
+        <v>29492.744945999999</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="35"/>
+      <c r="C37" s="32">
+        <v>13.986977</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="33">
+        <v>21.429967000000001</v>
+      </c>
+      <c r="G37" s="34">
+        <v>50.348004000000003</v>
+      </c>
+      <c r="H37" s="35">
+        <v>5987.1742780000004</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="36">
+        <v>9173.1722329999993</v>
+      </c>
+      <c r="L37" s="34">
+        <v>21551.639077</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="42"/>
+      <c r="C38" s="39">
+        <v>14.035757</v>
+      </c>
+      <c r="D38" s="40">
+        <v>10.496962</v>
+      </c>
+      <c r="E38" s="40">
+        <v>0.81893700000000003</v>
+      </c>
+      <c r="F38" s="40">
+        <v>18.267994999999999</v>
+      </c>
+      <c r="G38" s="41">
+        <v>74.764630999999994</v>
+      </c>
+      <c r="H38" s="42">
+        <v>60041.939283</v>
+      </c>
+      <c r="I38" s="43">
+        <v>45331.730626999997</v>
+      </c>
+      <c r="J38" s="43">
+        <v>3249.1628089999999</v>
+      </c>
+      <c r="K38" s="43">
+        <v>78944.047116999995</v>
+      </c>
+      <c r="L38" s="41">
+        <v>277157.515174</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="66"/>
+      <c r="C39" s="63">
+        <v>26.229406000000001</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="64">
+        <v>32.54607</v>
+      </c>
+      <c r="G39" s="65">
+        <v>55.144638</v>
+      </c>
+      <c r="H39" s="66">
+        <v>48747.372499999998</v>
+      </c>
+      <c r="I39" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="67">
+        <v>60486.896666000001</v>
+      </c>
+      <c r="L39" s="65">
+        <v>102486.354479</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="24"/>
+      <c r="C40" s="29">
+        <v>18.587899</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="26">
+        <v>25.543198</v>
+      </c>
+      <c r="G40" s="27">
+        <v>89.902601000000004</v>
+      </c>
+      <c r="H40" s="30">
+        <v>78682.638573000004</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="28">
+        <v>108124.44068</v>
+      </c>
+      <c r="L40" s="27">
+        <v>380558.011329</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="48"/>
+      <c r="C41" s="45">
+        <v>79.534496000000004</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="46">
+        <v>64.706112000000005</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="48">
+        <v>28009.009463999999</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="49">
+        <v>22787.019283000001</v>
+      </c>
+      <c r="L41" s="47" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="48"/>
+      <c r="C42" s="45">
+        <v>23.378136000000001</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="46">
+        <v>20.779851000000001</v>
+      </c>
+      <c r="G42" s="47">
+        <v>54.450420000000001</v>
+      </c>
+      <c r="H42" s="48">
+        <v>2133.4811789999999</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="49">
+        <v>1896.3625219999999</v>
+      </c>
+      <c r="L42" s="47">
+        <v>4969.1278149999998</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="24"/>
+      <c r="C43" s="29">
+        <v>25.091137</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="26">
+        <v>31.015547000000002</v>
+      </c>
+      <c r="G43" s="27">
+        <v>69.350748999999993</v>
+      </c>
+      <c r="H43" s="30">
+        <v>35634.948737999999</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="28">
+        <v>44048.918475999999</v>
+      </c>
+      <c r="L43" s="27">
+        <v>98493.360795999994</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="54"/>
+      <c r="C44" s="51">
+        <v>25.606472</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="52">
+        <v>33.203685</v>
+      </c>
+      <c r="G44" s="53">
+        <v>79.728286999999995</v>
+      </c>
+      <c r="H44" s="54">
+        <v>11987.281706</v>
+      </c>
+      <c r="I44" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="55">
+        <v>15543.801889</v>
+      </c>
+      <c r="L44" s="53">
+        <v>37323.588818999997</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="42"/>
+      <c r="C45" s="39">
+        <v>23.216887</v>
+      </c>
+      <c r="D45" s="40">
+        <v>15.95844</v>
+      </c>
+      <c r="E45" s="40">
+        <v>6.6767999999999994E-2</v>
+      </c>
+      <c r="F45" s="40">
+        <v>29.201452</v>
+      </c>
+      <c r="G45" s="41">
+        <v>78.887193999999994</v>
+      </c>
+      <c r="H45" s="42">
+        <v>205194.73216000001</v>
+      </c>
+      <c r="I45" s="43">
+        <v>133704.45055199999</v>
+      </c>
+      <c r="J45" s="43">
+        <v>620.94957899999997</v>
+      </c>
+      <c r="K45" s="43">
+        <v>252887.43951500001</v>
+      </c>
+      <c r="L45" s="41">
+        <v>623830.44323800004</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="60"/>
+      <c r="C46" s="57">
+        <v>14.146134999999999</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="58">
+        <v>19.854932000000002</v>
+      </c>
+      <c r="G46" s="59">
+        <v>50.288035999999998</v>
+      </c>
+      <c r="H46" s="60">
+        <v>2503.778542</v>
+      </c>
+      <c r="I46" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="61">
+        <v>3514.200339</v>
+      </c>
+      <c r="L46" s="59">
+        <v>8900.6717960000005</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="24"/>
+      <c r="C47" s="29">
+        <v>20.319407000000002</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="26">
+        <v>27.754290999999998</v>
+      </c>
+      <c r="G47" s="27">
+        <v>55.369129000000001</v>
+      </c>
+      <c r="H47" s="30">
+        <v>4012.4633130000002</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="28">
+        <v>5480.626096</v>
+      </c>
+      <c r="L47" s="27">
+        <v>10933.714615000001</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="48"/>
+      <c r="C48" s="45">
+        <v>23.281109000000001</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="46">
+        <v>30.793301</v>
+      </c>
+      <c r="G48" s="47">
+        <v>149.06310999999999</v>
+      </c>
+      <c r="H48" s="48">
+        <v>477.95637199999999</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="49">
+        <v>632.18012699999997</v>
+      </c>
+      <c r="L48" s="47">
+        <v>3060.2349599999998</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="24"/>
+      <c r="C49" s="29">
+        <v>15.595328</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="26">
+        <v>20.454498000000001</v>
+      </c>
+      <c r="G49" s="27">
+        <v>50.165210999999999</v>
+      </c>
+      <c r="H49" s="30">
+        <v>11358.529705999999</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="28">
+        <v>14897.604361</v>
+      </c>
+      <c r="L49" s="27">
+        <v>36536.778179000001</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="24"/>
+      <c r="C50" s="29">
+        <v>16.730421</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="26">
+        <v>21.496452000000001</v>
+      </c>
+      <c r="G50" s="27">
+        <v>83.112871999999996</v>
+      </c>
+      <c r="H50" s="30">
+        <v>342.12321400000002</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="28">
+        <v>439.58456899999999</v>
+      </c>
+      <c r="L50" s="27">
+        <v>1699.58916</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
@@ -2507,1013 +3443,1970 @@
       <c r="B51" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="30"/>
+      <c r="C51" s="20">
+        <v>15.182430999999999</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="21">
+        <v>27.214252999999999</v>
+      </c>
+      <c r="G51" s="22">
+        <v>79.178730999999999</v>
+      </c>
+      <c r="H51" s="23">
+        <v>12072.191365000001</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="24">
+        <v>21639.200202</v>
+      </c>
+      <c r="L51" s="22">
+        <v>62958.347699999998</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="24"/>
+      <c r="C52" s="29">
+        <v>13.466252000000001</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="26">
+        <v>15.100757</v>
+      </c>
+      <c r="G52" s="27">
+        <v>42.879624</v>
+      </c>
+      <c r="H52" s="30">
+        <v>2197.7419420000001</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="28">
+        <v>2464.4990720000001</v>
+      </c>
+      <c r="L52" s="27">
+        <v>6998.1124989999998</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="24"/>
+      <c r="C53" s="29">
+        <v>19.122374000000001</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="26">
+        <v>25.003971</v>
+      </c>
+      <c r="G53" s="27">
+        <v>78.797205000000005</v>
+      </c>
+      <c r="H53" s="30">
+        <v>329.32915700000001</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="28">
+        <v>430.62313</v>
+      </c>
+      <c r="L53" s="27">
+        <v>1357.0604269999999</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="24"/>
+      <c r="C54" s="29">
+        <v>27.283369</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="26">
+        <v>29.787742999999999</v>
+      </c>
+      <c r="G54" s="27">
+        <v>53.279603000000002</v>
+      </c>
+      <c r="H54" s="30">
+        <v>957.33617000000004</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="28">
+        <v>1045.2112299999999</v>
+      </c>
+      <c r="L54" s="27">
+        <v>1869.5085039999999</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="24"/>
+      <c r="C55" s="29">
+        <v>21.993628999999999</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="26">
+        <v>26.906216000000001</v>
+      </c>
+      <c r="G55" s="27">
+        <v>51.561101999999998</v>
+      </c>
+      <c r="H55" s="30">
+        <v>4249.084014</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="28">
+        <v>5198.176899</v>
+      </c>
+      <c r="L55" s="27">
+        <v>9961.4056469999996</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="24"/>
+      <c r="C56" s="29">
+        <v>18.160876999999999</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="26">
+        <v>24.260086999999999</v>
+      </c>
+      <c r="G56" s="27">
+        <v>51.337608000000003</v>
+      </c>
+      <c r="H56" s="30">
+        <v>2710.098446</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="28">
+        <v>3620.2670469999998</v>
+      </c>
+      <c r="L56" s="27">
+        <v>7660.9720379999999</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="24"/>
+      <c r="C57" s="29">
+        <v>7.0773780000000004</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="26">
+        <v>12.558804</v>
+      </c>
+      <c r="G57" s="27">
+        <v>36.788648999999999</v>
+      </c>
+      <c r="H57" s="30">
+        <v>31216.444346</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="28">
+        <v>55393.564919999997</v>
+      </c>
+      <c r="L57" s="27">
+        <v>162265.00857800001</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="24"/>
+      <c r="C58" s="29">
+        <v>19.481874000000001</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="26">
+        <v>30.973499</v>
+      </c>
+      <c r="G58" s="27">
+        <v>89.386596999999995</v>
+      </c>
+      <c r="H58" s="30">
+        <v>5373.8077990000002</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="28">
+        <v>8543.6147930000006</v>
+      </c>
+      <c r="L58" s="27">
+        <v>24656.066716000001</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="24"/>
+      <c r="C59" s="29">
+        <v>15.908913</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="26">
+        <v>20.257985000000001</v>
+      </c>
+      <c r="G59" s="27">
+        <v>47.061891000000003</v>
+      </c>
+      <c r="H59" s="30">
+        <v>1139.8065389999999</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="28">
+        <v>1451.399216</v>
+      </c>
+      <c r="L59" s="27">
+        <v>3371.7861240000002</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="35"/>
+      <c r="C60" s="32">
+        <v>17.133631000000001</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="33">
+        <v>21.786899999999999</v>
+      </c>
+      <c r="G60" s="34">
+        <v>64.863398000000004</v>
+      </c>
+      <c r="H60" s="35">
+        <v>1428.673376</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="36">
+        <v>1816.682282</v>
+      </c>
+      <c r="L60" s="34">
+        <v>5408.5796419999997</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="42"/>
+      <c r="C61" s="39">
+        <v>10.887579000000001</v>
+      </c>
+      <c r="D61" s="40">
+        <v>7.7925839999999997</v>
+      </c>
+      <c r="E61" s="40">
+        <v>0.53631700000000004</v>
+      </c>
+      <c r="F61" s="40">
+        <v>17.166491000000001</v>
+      </c>
+      <c r="G61" s="41">
+        <v>47.181908</v>
+      </c>
+      <c r="H61" s="42">
+        <v>80369.364302000002</v>
+      </c>
+      <c r="I61" s="43">
+        <v>57657.688612999998</v>
+      </c>
+      <c r="J61" s="43">
+        <v>3946.4933529999998</v>
+      </c>
+      <c r="K61" s="43">
+        <v>126567.434286</v>
+      </c>
+      <c r="L61" s="41">
+        <v>347637.83658599999</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="70"/>
-      <c r="B62" s="71" t="s">
+      <c r="A62" s="69"/>
+      <c r="B62" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="74"/>
+      <c r="C62" s="71">
+        <v>18.615424000000001</v>
+      </c>
+      <c r="D62" s="72">
+        <v>13.790915999999999</v>
+      </c>
+      <c r="E62" s="72">
+        <v>0.35862300000000003</v>
+      </c>
+      <c r="F62" s="72">
+        <v>23.750734999999999</v>
+      </c>
+      <c r="G62" s="73">
+        <v>67.181402000000006</v>
+      </c>
+      <c r="H62" s="74">
+        <v>530101.35632899997</v>
+      </c>
+      <c r="I62" s="75">
+        <v>392074.07202800002</v>
+      </c>
+      <c r="J62" s="75">
+        <v>10132.300492</v>
+      </c>
+      <c r="K62" s="75">
+        <v>672519.17176900001</v>
+      </c>
+      <c r="L62" s="73">
+        <v>1765361.4862530001</v>
+      </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="70"/>
-      <c r="B63" s="71" t="s">
+      <c r="A63" s="69"/>
+      <c r="B63" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="76"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="74"/>
+      <c r="C63" s="71">
+        <v>30.722653000000001</v>
+      </c>
+      <c r="D63" s="72">
+        <v>19.087765000000001</v>
+      </c>
+      <c r="E63" s="72">
+        <v>0.127137</v>
+      </c>
+      <c r="F63" s="72">
+        <v>36.602876000000002</v>
+      </c>
+      <c r="G63" s="73">
+        <v>85.506292999999999</v>
+      </c>
+      <c r="H63" s="74">
+        <v>30811911.243937001</v>
+      </c>
+      <c r="I63" s="75">
+        <v>17180655.329741001</v>
+      </c>
+      <c r="J63" s="75">
+        <v>104343.795757</v>
+      </c>
+      <c r="K63" s="75">
+        <v>36820027.536555</v>
+      </c>
+      <c r="L63" s="73">
+        <v>89868401.824406996</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
-      <c r="B64" s="78" t="s">
+      <c r="A64" s="76"/>
+      <c r="B64" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="81"/>
+      <c r="C64" s="78">
+        <v>28.938859000000001</v>
+      </c>
+      <c r="D64" s="79">
+        <v>19.331318</v>
+      </c>
+      <c r="E64" s="79">
+        <v>4.9861999999999997E-2</v>
+      </c>
+      <c r="F64" s="79">
+        <v>32.797037000000003</v>
+      </c>
+      <c r="G64" s="80">
+        <v>71.811745999999999</v>
+      </c>
+      <c r="H64" s="81">
+        <v>1474259.045222</v>
+      </c>
+      <c r="I64" s="82">
+        <v>982197.90006200003</v>
+      </c>
+      <c r="J64" s="82">
+        <v>1529.275746</v>
+      </c>
+      <c r="K64" s="82">
+        <v>1671437.6283259999</v>
+      </c>
+      <c r="L64" s="80">
+        <v>3605333.4862099998</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
-      <c r="B65" s="84" t="s">
+      <c r="A65" s="76"/>
+      <c r="B65" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="85"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="87"/>
+      <c r="C65" s="84">
+        <v>22.292846000000001</v>
+      </c>
+      <c r="D65" s="85">
+        <v>14.374708</v>
+      </c>
+      <c r="E65" s="85">
+        <v>3.9496999999999997E-2</v>
+      </c>
+      <c r="F65" s="85">
+        <v>28.549250000000001</v>
+      </c>
+      <c r="G65" s="86">
+        <v>68.193054000000004</v>
+      </c>
+      <c r="H65" s="87">
+        <v>6142497.4248599997</v>
+      </c>
+      <c r="I65" s="88">
+        <v>3683560.2595190001</v>
+      </c>
+      <c r="J65" s="88">
+        <v>6062.6564689999996</v>
+      </c>
+      <c r="K65" s="88">
+        <v>7724128.9469729997</v>
+      </c>
+      <c r="L65" s="86">
+        <v>17821494.198139001</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="77"/>
-      <c r="B66" s="90" t="s">
+      <c r="A66" s="76"/>
+      <c r="B66" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="93"/>
+      <c r="C66" s="90">
+        <v>30.085972999999999</v>
+      </c>
+      <c r="D66" s="91">
+        <v>18.791288000000002</v>
+      </c>
+      <c r="E66" s="91">
+        <v>0.140537</v>
+      </c>
+      <c r="F66" s="91">
+        <v>35.927022999999998</v>
+      </c>
+      <c r="G66" s="92">
+        <v>84.555539999999993</v>
+      </c>
+      <c r="H66" s="93">
+        <v>31342012.600265998</v>
+      </c>
+      <c r="I66" s="94">
+        <v>17572729.401769999</v>
+      </c>
+      <c r="J66" s="94">
+        <v>114476.09624899999</v>
+      </c>
+      <c r="K66" s="94">
+        <v>37492546.708324</v>
+      </c>
+      <c r="L66" s="92">
+        <v>91633763.310661003</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
-      <c r="B67" s="84" t="s">
+      <c r="A67" s="76"/>
+      <c r="B67" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="87"/>
+      <c r="C67" s="84">
+        <v>18.784500999999999</v>
+      </c>
+      <c r="D67" s="85">
+        <v>12.297146</v>
+      </c>
+      <c r="E67" s="85">
+        <v>0.415273</v>
+      </c>
+      <c r="F67" s="85">
+        <v>24.078405</v>
+      </c>
+      <c r="G67" s="86">
+        <v>83.364146000000005</v>
+      </c>
+      <c r="H67" s="87">
+        <v>188166.79119799999</v>
+      </c>
+      <c r="I67" s="88">
+        <v>117446.870759</v>
+      </c>
+      <c r="J67" s="88">
+        <v>4519.4040059999998</v>
+      </c>
+      <c r="K67" s="88">
+        <v>237057.78607599999</v>
+      </c>
+      <c r="L67" s="86">
+        <v>734026.82669799996</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
-      <c r="B68" s="84" t="s">
+      <c r="A68" s="76"/>
+      <c r="B68" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="85"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="88"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="87"/>
+      <c r="C68" s="84">
+        <v>16.655854000000001</v>
+      </c>
+      <c r="D68" s="85">
+        <v>10.891035</v>
+      </c>
+      <c r="E68" s="85">
+        <v>0.32145699999999999</v>
+      </c>
+      <c r="F68" s="85">
+        <v>22.433477</v>
+      </c>
+      <c r="G68" s="86">
+        <v>71.953419999999994</v>
+      </c>
+      <c r="H68" s="87">
+        <v>242349.83979500001</v>
+      </c>
+      <c r="I68" s="88">
+        <v>154103.28696699999</v>
+      </c>
+      <c r="J68" s="88">
+        <v>5030.8108119999997</v>
+      </c>
+      <c r="K68" s="88">
+        <v>324958.19496400002</v>
+      </c>
+      <c r="L68" s="86">
+        <v>940665.51166399999</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
-      <c r="B69" s="84" t="s">
+      <c r="A69" s="76"/>
+      <c r="B69" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="87"/>
+      <c r="C69" s="84">
+        <v>16.037410000000001</v>
+      </c>
+      <c r="D69" s="85">
+        <v>11.927104</v>
+      </c>
+      <c r="E69" s="85">
+        <v>0.91636700000000004</v>
+      </c>
+      <c r="F69" s="85">
+        <v>21.417791999999999</v>
+      </c>
+      <c r="G69" s="86">
+        <v>51.731054</v>
+      </c>
+      <c r="H69" s="87">
+        <v>47365.009351000001</v>
+      </c>
+      <c r="I69" s="88">
+        <v>34973.615937000002</v>
+      </c>
+      <c r="J69" s="88">
+        <v>2606.0770480000001</v>
+      </c>
+      <c r="K69" s="88">
+        <v>63146.823231000002</v>
+      </c>
+      <c r="L69" s="86">
+        <v>152379.38417100001</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
-      <c r="B70" s="84" t="s">
+      <c r="A70" s="76"/>
+      <c r="B70" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C70" s="85"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="89"/>
-      <c r="K70" s="89"/>
-      <c r="L70" s="87"/>
+      <c r="C70" s="84">
+        <v>17.532865000000001</v>
+      </c>
+      <c r="D70" s="85">
+        <v>14.072761</v>
+      </c>
+      <c r="E70" s="85">
+        <v>0.76559500000000003</v>
+      </c>
+      <c r="F70" s="85">
+        <v>17.388855</v>
+      </c>
+      <c r="G70" s="86">
+        <v>58.553961999999999</v>
+      </c>
+      <c r="H70" s="87">
+        <v>44861.068067</v>
+      </c>
+      <c r="I70" s="88">
+        <v>34968.937943999998</v>
+      </c>
+      <c r="J70" s="88">
+        <v>2142.8010169999998</v>
+      </c>
+      <c r="K70" s="88">
+        <v>45290.536412000001</v>
+      </c>
+      <c r="L70" s="86">
+        <v>148282.37772399999</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="77"/>
-      <c r="B71" s="84" t="s">
+      <c r="A71" s="76"/>
+      <c r="B71" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="88"/>
-      <c r="I71" s="89"/>
-      <c r="J71" s="89"/>
-      <c r="K71" s="89"/>
-      <c r="L71" s="87"/>
+      <c r="C71" s="84">
+        <v>10.887579000000001</v>
+      </c>
+      <c r="D71" s="85">
+        <v>7.7925839999999997</v>
+      </c>
+      <c r="E71" s="85">
+        <v>0.53631700000000004</v>
+      </c>
+      <c r="F71" s="85">
+        <v>17.166491000000001</v>
+      </c>
+      <c r="G71" s="86">
+        <v>47.181908</v>
+      </c>
+      <c r="H71" s="87">
+        <v>80369.364302000002</v>
+      </c>
+      <c r="I71" s="88">
+        <v>57657.688612999998</v>
+      </c>
+      <c r="J71" s="88">
+        <v>3946.4933529999998</v>
+      </c>
+      <c r="K71" s="88">
+        <v>126567.434286</v>
+      </c>
+      <c r="L71" s="86">
+        <v>347637.83658599999</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="77"/>
-      <c r="B72" s="84" t="s">
+      <c r="A72" s="76"/>
+      <c r="B72" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="85"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="89"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="87"/>
+      <c r="C72" s="84">
+        <v>13.153203</v>
+      </c>
+      <c r="D72" s="85">
+        <v>9.5907370000000007</v>
+      </c>
+      <c r="E72" s="85">
+        <v>0.70813300000000001</v>
+      </c>
+      <c r="F72" s="85">
+        <v>17.489965999999999</v>
+      </c>
+      <c r="G72" s="86">
+        <v>82.884754000000001</v>
+      </c>
+      <c r="H72" s="87">
+        <v>41898.635675999998</v>
+      </c>
+      <c r="I72" s="88">
+        <v>30936.563429999998</v>
+      </c>
+      <c r="J72" s="88">
+        <v>2040.6963450000001</v>
+      </c>
+      <c r="K72" s="88">
+        <v>56578.624632999999</v>
+      </c>
+      <c r="L72" s="86">
+        <v>220939.244722</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
-      <c r="B73" s="84" t="s">
+      <c r="A73" s="76"/>
+      <c r="B73" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="85"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="89"/>
-      <c r="K73" s="89"/>
-      <c r="L73" s="87"/>
+      <c r="C73" s="84">
+        <v>22.643834999999999</v>
+      </c>
+      <c r="D73" s="85">
+        <v>19.351509</v>
+      </c>
+      <c r="E73" s="85">
+        <v>0.30705399999999999</v>
+      </c>
+      <c r="F73" s="85">
+        <v>26.140806000000001</v>
+      </c>
+      <c r="G73" s="86">
+        <v>64.371253999999993</v>
+      </c>
+      <c r="H73" s="87">
+        <v>182397.60863100001</v>
+      </c>
+      <c r="I73" s="88">
+        <v>155781.80908000001</v>
+      </c>
+      <c r="J73" s="88">
+        <v>2183.378138</v>
+      </c>
+      <c r="K73" s="88">
+        <v>213724.068035</v>
+      </c>
+      <c r="L73" s="86">
+        <v>501013.26301699999</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="77"/>
-      <c r="B74" s="84" t="s">
+      <c r="A74" s="76"/>
+      <c r="B74" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="88"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="89"/>
-      <c r="L74" s="87"/>
+      <c r="C74" s="84">
+        <v>29.673382</v>
+      </c>
+      <c r="D74" s="85">
+        <v>21.135947999999999</v>
+      </c>
+      <c r="E74" s="85">
+        <v>9.8046999999999995E-2</v>
+      </c>
+      <c r="F74" s="85">
+        <v>34.303970999999997</v>
+      </c>
+      <c r="G74" s="86">
+        <v>62.316941</v>
+      </c>
+      <c r="H74" s="87">
+        <v>126512.093588</v>
+      </c>
+      <c r="I74" s="88">
+        <v>80721.690214999995</v>
+      </c>
+      <c r="J74" s="88">
+        <v>433.24668300000002</v>
+      </c>
+      <c r="K74" s="88">
+        <v>144762.99883600001</v>
+      </c>
+      <c r="L74" s="86">
+        <v>243272.43190900001</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="77"/>
-      <c r="B75" s="84" t="s">
+      <c r="A75" s="76"/>
+      <c r="B75" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="96"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="100"/>
-      <c r="K75" s="100"/>
-      <c r="L75" s="98"/>
+      <c r="C75" s="95">
+        <v>21.491755999999999</v>
+      </c>
+      <c r="D75" s="96">
+        <v>19.443497000000001</v>
+      </c>
+      <c r="E75" s="96">
+        <v>0.36523299999999997</v>
+      </c>
+      <c r="F75" s="96">
+        <v>19.451343000000001</v>
+      </c>
+      <c r="G75" s="97">
+        <v>78.950210999999996</v>
+      </c>
+      <c r="H75" s="98">
+        <v>22730.156361000001</v>
+      </c>
+      <c r="I75" s="99">
+        <v>20364.699775000001</v>
+      </c>
+      <c r="J75" s="99">
+        <v>489.06221599999998</v>
+      </c>
+      <c r="K75" s="99">
+        <v>20972.191005000001</v>
+      </c>
+      <c r="L75" s="97">
+        <v>84283.488217999999</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
-      <c r="B76" s="101" t="s">
+      <c r="A76" s="76"/>
+      <c r="B76" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="102"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="106"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="106"/>
-      <c r="L76" s="104"/>
+      <c r="C76" s="101">
+        <v>17.051271</v>
+      </c>
+      <c r="D76" s="102">
+        <v>12.49943</v>
+      </c>
+      <c r="E76" s="102">
+        <v>8.1261E-2</v>
+      </c>
+      <c r="F76" s="102">
+        <v>21.316351000000001</v>
+      </c>
+      <c r="G76" s="103">
+        <v>57.036900000000003</v>
+      </c>
+      <c r="H76" s="104">
+        <v>582258.98559699999</v>
+      </c>
+      <c r="I76" s="105">
+        <v>376138.60935799999</v>
+      </c>
+      <c r="J76" s="105">
+        <v>2120.6184750000002</v>
+      </c>
+      <c r="K76" s="105">
+        <v>720154.52540299995</v>
+      </c>
+      <c r="L76" s="103">
+        <v>2120766.7611119999</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
-      <c r="B77" s="84" t="s">
+      <c r="A77" s="76"/>
+      <c r="B77" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="C77" s="85"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="87"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="87"/>
+      <c r="C77" s="84">
+        <v>32.261127999999999</v>
+      </c>
+      <c r="D77" s="85">
+        <v>21.854924</v>
+      </c>
+      <c r="E77" s="85">
+        <v>2.3758999999999999E-2</v>
+      </c>
+      <c r="F77" s="85">
+        <v>36.235633</v>
+      </c>
+      <c r="G77" s="86">
+        <v>78.676390999999995</v>
+      </c>
+      <c r="H77" s="87">
+        <v>1100420.0986649999</v>
+      </c>
+      <c r="I77" s="88">
+        <v>745032.83013899997</v>
+      </c>
+      <c r="J77" s="88">
+        <v>676.66212199999995</v>
+      </c>
+      <c r="K77" s="88">
+        <v>1234312.9983389999</v>
+      </c>
+      <c r="L77" s="86">
+        <v>2622236.7164070001</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="77"/>
-      <c r="B78" s="84" t="s">
+      <c r="A78" s="76"/>
+      <c r="B78" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="89"/>
-      <c r="L78" s="87"/>
+      <c r="C78" s="84">
+        <v>45.833978999999999</v>
+      </c>
+      <c r="D78" s="85">
+        <v>26.351002000000001</v>
+      </c>
+      <c r="E78" s="85">
+        <v>0.66917199999999999</v>
+      </c>
+      <c r="F78" s="85">
+        <v>50.562139000000002</v>
+      </c>
+      <c r="G78" s="86">
+        <v>88.213199000000003</v>
+      </c>
+      <c r="H78" s="87">
+        <v>8129944.8249850003</v>
+      </c>
+      <c r="I78" s="88">
+        <v>4696352.6449119998</v>
+      </c>
+      <c r="J78" s="88">
+        <v>85631.060813999997</v>
+      </c>
+      <c r="K78" s="88">
+        <v>8936838.8424570002</v>
+      </c>
+      <c r="L78" s="86">
+        <v>15473017.124594999</v>
+      </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="77"/>
-      <c r="B79" s="90" t="s">
+      <c r="A79" s="76"/>
+      <c r="B79" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="93"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="95"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="95"/>
-      <c r="L79" s="93"/>
+      <c r="C79" s="90">
+        <v>36.886285000000001</v>
+      </c>
+      <c r="D79" s="91">
+        <v>22.940041000000001</v>
+      </c>
+      <c r="E79" s="91">
+        <v>0.19090299999999999</v>
+      </c>
+      <c r="F79" s="91">
+        <v>43.708331000000001</v>
+      </c>
+      <c r="G79" s="92">
+        <v>108.778068</v>
+      </c>
+      <c r="H79" s="93">
+        <v>21996638.561291002</v>
+      </c>
+      <c r="I79" s="94">
+        <v>11927275.578989999</v>
+      </c>
+      <c r="J79" s="94">
+        <v>83298.847508999999</v>
+      </c>
+      <c r="K79" s="94">
+        <v>26296540.911453001</v>
+      </c>
+      <c r="L79" s="92">
+        <v>67414398.561552003</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="77"/>
-      <c r="B80" s="101" t="s">
+      <c r="A80" s="76"/>
+      <c r="B80" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="102"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="104"/>
-      <c r="H80" s="105"/>
-      <c r="I80" s="106"/>
-      <c r="J80" s="106"/>
-      <c r="K80" s="106"/>
-      <c r="L80" s="104"/>
+      <c r="C80" s="101">
+        <v>27.511341000000002</v>
+      </c>
+      <c r="D80" s="102">
+        <v>18.960992000000001</v>
+      </c>
+      <c r="E80" s="102">
+        <v>0.118892</v>
+      </c>
+      <c r="F80" s="102">
+        <v>28.97936</v>
+      </c>
+      <c r="G80" s="103">
+        <v>61.561388000000001</v>
+      </c>
+      <c r="H80" s="104">
+        <v>108748.96294500001</v>
+      </c>
+      <c r="I80" s="105">
+        <v>64195.106839</v>
+      </c>
+      <c r="J80" s="105">
+        <v>534.06484399999999</v>
+      </c>
+      <c r="K80" s="105">
+        <v>112920.432208</v>
+      </c>
+      <c r="L80" s="103">
+        <v>215699.44593399999</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="77"/>
-      <c r="B81" s="84" t="s">
+      <c r="A81" s="76"/>
+      <c r="B81" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="85"/>
-      <c r="D81" s="86"/>
-      <c r="E81" s="86"/>
-      <c r="F81" s="86"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="88"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="89"/>
-      <c r="K81" s="89"/>
-      <c r="L81" s="87"/>
+      <c r="C81" s="84">
+        <v>29.893751999999999</v>
+      </c>
+      <c r="D81" s="85">
+        <v>16.201653</v>
+      </c>
+      <c r="E81" s="85">
+        <v>3.3467999999999998E-2</v>
+      </c>
+      <c r="F81" s="85">
+        <v>30.452732000000001</v>
+      </c>
+      <c r="G81" s="86">
+        <v>31.371414000000001</v>
+      </c>
+      <c r="H81" s="87">
+        <v>1460347.1355999999</v>
+      </c>
+      <c r="I81" s="88">
+        <v>712745.82490600005</v>
+      </c>
+      <c r="J81" s="88">
+        <v>2155.9716539999999</v>
+      </c>
+      <c r="K81" s="88">
+        <v>1475170.622579</v>
+      </c>
+      <c r="L81" s="86">
+        <v>1522818.8438039999</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="77"/>
-      <c r="B82" s="84" t="s">
+      <c r="A82" s="76"/>
+      <c r="B82" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="85"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="87"/>
-      <c r="H82" s="88"/>
-      <c r="I82" s="89"/>
-      <c r="J82" s="89"/>
-      <c r="K82" s="89"/>
-      <c r="L82" s="87"/>
+      <c r="C82" s="84">
+        <v>17.003889999999998</v>
+      </c>
+      <c r="D82" s="85">
+        <v>12.922376999999999</v>
+      </c>
+      <c r="E82" s="85">
+        <v>0.40205099999999999</v>
+      </c>
+      <c r="F82" s="85">
+        <v>22.803546000000001</v>
+      </c>
+      <c r="G82" s="86">
+        <v>68.128851999999995</v>
+      </c>
+      <c r="H82" s="87">
+        <v>421352.393384</v>
+      </c>
+      <c r="I82" s="88">
+        <v>327878.96519000002</v>
+      </c>
+      <c r="J82" s="88">
+        <v>9598.2356479999999</v>
+      </c>
+      <c r="K82" s="88">
+        <v>559598.73956000002</v>
+      </c>
+      <c r="L82" s="86">
+        <v>1549662.0403199999</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="77"/>
-      <c r="B83" s="90" t="s">
+      <c r="A83" s="76"/>
+      <c r="B83" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="93"/>
-      <c r="H83" s="94"/>
-      <c r="I83" s="95"/>
-      <c r="J83" s="95"/>
-      <c r="K83" s="95"/>
-      <c r="L83" s="93"/>
+      <c r="C83" s="90">
+        <v>30.801445000000001</v>
+      </c>
+      <c r="D83" s="91">
+        <v>19.385093999999999</v>
+      </c>
+      <c r="E83" s="91">
+        <v>0.13702</v>
+      </c>
+      <c r="F83" s="91">
+        <v>37.187483999999998</v>
+      </c>
+      <c r="G83" s="92">
+        <v>90.652141999999998</v>
+      </c>
+      <c r="H83" s="93">
+        <v>29351564.108336002</v>
+      </c>
+      <c r="I83" s="94">
+        <v>16467909.504835</v>
+      </c>
+      <c r="J83" s="94">
+        <v>102187.82410300001</v>
+      </c>
+      <c r="K83" s="94">
+        <v>35344856.913975999</v>
+      </c>
+      <c r="L83" s="92">
+        <v>88345582.980602995</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
-      <c r="B84" s="101" t="s">
+      <c r="A84" s="76"/>
+      <c r="B84" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="102"/>
-      <c r="D84" s="103"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="103"/>
-      <c r="G84" s="104"/>
-      <c r="H84" s="105"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="104"/>
+      <c r="C84" s="101">
+        <v>15.401648</v>
+      </c>
+      <c r="D84" s="102">
+        <v>10.078754</v>
+      </c>
+      <c r="E84" s="102">
+        <v>2.0076860000000001</v>
+      </c>
+      <c r="F84" s="102">
+        <v>19.376518999999998</v>
+      </c>
+      <c r="G84" s="103">
+        <v>78.707606999999996</v>
+      </c>
+      <c r="H84" s="104">
+        <v>47872.504149</v>
+      </c>
+      <c r="I84" s="105">
+        <v>31476.226707000002</v>
+      </c>
+      <c r="J84" s="105">
+        <v>6283.292289</v>
+      </c>
+      <c r="K84" s="105">
+        <v>60503.659780000002</v>
+      </c>
+      <c r="L84" s="103">
+        <v>197372.91737499999</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
-      <c r="B85" s="107" t="s">
+      <c r="A85" s="76"/>
+      <c r="B85" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="85"/>
-      <c r="D85" s="86"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="86"/>
-      <c r="G85" s="87"/>
-      <c r="H85" s="88"/>
-      <c r="I85" s="89"/>
-      <c r="J85" s="89"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="87"/>
+      <c r="C85" s="84">
+        <v>13.198662000000001</v>
+      </c>
+      <c r="D85" s="85">
+        <v>5.7369149999999998</v>
+      </c>
+      <c r="E85" s="85">
+        <v>3.8170220000000001</v>
+      </c>
+      <c r="F85" s="85">
+        <v>13.853621</v>
+      </c>
+      <c r="G85" s="86">
+        <v>38.346981</v>
+      </c>
+      <c r="H85" s="87">
+        <v>3913.0613579999999</v>
+      </c>
+      <c r="I85" s="88">
+        <v>1734.735451</v>
+      </c>
+      <c r="J85" s="88">
+        <v>993.768957</v>
+      </c>
+      <c r="K85" s="88">
+        <v>4154.8426769999996</v>
+      </c>
+      <c r="L85" s="86">
+        <v>16312.476054000001</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
-      <c r="B86" s="84" t="s">
+      <c r="A86" s="76"/>
+      <c r="B86" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="85"/>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="87"/>
-      <c r="H86" s="88"/>
-      <c r="I86" s="89"/>
-      <c r="J86" s="89"/>
-      <c r="K86" s="89"/>
-      <c r="L86" s="87"/>
+      <c r="C86" s="84">
+        <v>16.129200999999998</v>
+      </c>
+      <c r="D86" s="85">
+        <v>12.156829</v>
+      </c>
+      <c r="E86" s="85">
+        <v>0.15243300000000001</v>
+      </c>
+      <c r="F86" s="85">
+        <v>21.847847999999999</v>
+      </c>
+      <c r="G86" s="86">
+        <v>67.555892999999998</v>
+      </c>
+      <c r="H86" s="87">
+        <v>266240.72649899998</v>
+      </c>
+      <c r="I86" s="88">
+        <v>203336.44589800001</v>
+      </c>
+      <c r="J86" s="88">
+        <v>2837.5362249999998</v>
+      </c>
+      <c r="K86" s="88">
+        <v>362258.26817699999</v>
+      </c>
+      <c r="L86" s="86">
+        <v>1084517.0252080001</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
-      <c r="B87" s="84" t="s">
+      <c r="A87" s="76"/>
+      <c r="B87" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="85"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="87"/>
-      <c r="H87" s="88"/>
-      <c r="I87" s="89"/>
-      <c r="J87" s="89"/>
-      <c r="K87" s="89"/>
-      <c r="L87" s="87"/>
+      <c r="C87" s="84">
+        <v>18.847023</v>
+      </c>
+      <c r="D87" s="85">
+        <v>15.822286</v>
+      </c>
+      <c r="E87" s="85">
+        <v>9.4427999999999998E-2</v>
+      </c>
+      <c r="F87" s="85">
+        <v>26.532651999999999</v>
+      </c>
+      <c r="G87" s="86">
+        <v>73.973355999999995</v>
+      </c>
+      <c r="H87" s="87">
+        <v>983093.382996</v>
+      </c>
+      <c r="I87" s="88">
+        <v>801534.13628199999</v>
+      </c>
+      <c r="J87" s="88">
+        <v>6179.7930340000003</v>
+      </c>
+      <c r="K87" s="88">
+        <v>1378553.9003270001</v>
+      </c>
+      <c r="L87" s="86">
+        <v>3819841.3595139999</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
-      <c r="B88" s="84" t="s">
+      <c r="A88" s="76"/>
+      <c r="B88" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="85"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="89"/>
-      <c r="J88" s="89"/>
-      <c r="K88" s="89"/>
-      <c r="L88" s="87"/>
+      <c r="C88" s="84">
+        <v>29.031175999999999</v>
+      </c>
+      <c r="D88" s="85">
+        <v>21.858398999999999</v>
+      </c>
+      <c r="E88" s="85">
+        <v>2.7820000000000001E-2</v>
+      </c>
+      <c r="F88" s="85">
+        <v>33.471217000000003</v>
+      </c>
+      <c r="G88" s="86">
+        <v>62.411805999999999</v>
+      </c>
+      <c r="H88" s="87">
+        <v>204545.212531</v>
+      </c>
+      <c r="I88" s="88">
+        <v>147976.69231799999</v>
+      </c>
+      <c r="J88" s="88">
+        <v>185.59145799999999</v>
+      </c>
+      <c r="K88" s="88">
+        <v>235481.97592900001</v>
+      </c>
+      <c r="L88" s="86">
+        <v>429035.65124400001</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
-      <c r="B89" s="84" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="C89" s="85"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="89"/>
-      <c r="J89" s="89"/>
-      <c r="K89" s="89"/>
-      <c r="L89" s="87"/>
+      <c r="C89" s="84">
+        <v>25.632484999999999</v>
+      </c>
+      <c r="D89" s="85">
+        <v>15.377779</v>
+      </c>
+      <c r="E89" s="85">
+        <v>1.1091999999999999E-2</v>
+      </c>
+      <c r="F89" s="85">
+        <v>30.586696</v>
+      </c>
+      <c r="G89" s="86">
+        <v>64.230193</v>
+      </c>
+      <c r="H89" s="87">
+        <v>6941431.6461180001</v>
+      </c>
+      <c r="I89" s="88">
+        <v>4036148.1888009999</v>
+      </c>
+      <c r="J89" s="88">
+        <v>2096.852214</v>
+      </c>
+      <c r="K89" s="88">
+        <v>8332636.7687560003</v>
+      </c>
+      <c r="L89" s="86">
+        <v>17802940.053660002</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="77"/>
-      <c r="B90" s="90" t="s">
+      <c r="A90" s="76"/>
+      <c r="B90" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="91"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="93"/>
-      <c r="H90" s="94"/>
-      <c r="I90" s="95"/>
-      <c r="J90" s="95"/>
-      <c r="K90" s="95"/>
-      <c r="L90" s="93"/>
+      <c r="C90" s="90">
+        <v>37.188060999999998</v>
+      </c>
+      <c r="D90" s="91">
+        <v>22.913547000000001</v>
+      </c>
+      <c r="E90" s="91">
+        <v>0.207534</v>
+      </c>
+      <c r="F90" s="91">
+        <v>43.296289999999999</v>
+      </c>
+      <c r="G90" s="92">
+        <v>102.821079</v>
+      </c>
+      <c r="H90" s="93">
+        <v>22879842.197834998</v>
+      </c>
+      <c r="I90" s="94">
+        <v>12339129.047552999</v>
+      </c>
+      <c r="J90" s="94">
+        <v>95114.838636999993</v>
+      </c>
+      <c r="K90" s="94">
+        <v>27097826.742355999</v>
+      </c>
+      <c r="L90" s="92">
+        <v>68086430.222103998</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="77"/>
-      <c r="B91" s="101" t="s">
+      <c r="A91" s="76"/>
+      <c r="B91" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="C91" s="102"/>
-      <c r="D91" s="103"/>
-      <c r="E91" s="103"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="104"/>
-      <c r="H91" s="105"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="106"/>
-      <c r="K91" s="106"/>
-      <c r="L91" s="104"/>
+      <c r="C91" s="101">
+        <v>15.992760000000001</v>
+      </c>
+      <c r="D91" s="102">
+        <v>12.177401</v>
+      </c>
+      <c r="E91" s="102">
+        <v>1.2199139999999999</v>
+      </c>
+      <c r="F91" s="102">
+        <v>18.911598999999999</v>
+      </c>
+      <c r="G91" s="103">
+        <v>69.738530999999995</v>
+      </c>
+      <c r="H91" s="104">
+        <v>105611.86758200001</v>
+      </c>
+      <c r="I91" s="105">
+        <v>79746.576593999998</v>
+      </c>
+      <c r="J91" s="105">
+        <v>8477.3789870000001</v>
+      </c>
+      <c r="K91" s="105">
+        <v>126799.80239300001</v>
+      </c>
+      <c r="L91" s="103">
+        <v>416103.39876900002</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-      <c r="B92" s="84" t="s">
+      <c r="A92" s="76"/>
+      <c r="B92" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="85"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="88"/>
-      <c r="I92" s="89"/>
-      <c r="J92" s="89"/>
-      <c r="K92" s="89"/>
-      <c r="L92" s="87"/>
+      <c r="C92" s="84">
+        <v>12.289379</v>
+      </c>
+      <c r="D92" s="85">
+        <v>8.5819550000000007</v>
+      </c>
+      <c r="E92" s="85">
+        <v>0.578426</v>
+      </c>
+      <c r="F92" s="85">
+        <v>15.577881</v>
+      </c>
+      <c r="G92" s="86">
+        <v>40.361975999999999</v>
+      </c>
+      <c r="H92" s="87">
+        <v>73764.978766999993</v>
+      </c>
+      <c r="I92" s="88">
+        <v>49723.977058999997</v>
+      </c>
+      <c r="J92" s="88">
+        <v>3079.3679670000001</v>
+      </c>
+      <c r="K92" s="88">
+        <v>95067.481035999997</v>
+      </c>
+      <c r="L92" s="86">
+        <v>248420.45827800001</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
-      <c r="B93" s="84" t="s">
+      <c r="A93" s="76"/>
+      <c r="B93" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="87"/>
-      <c r="H93" s="88"/>
-      <c r="I93" s="89"/>
-      <c r="J93" s="89"/>
-      <c r="K93" s="89"/>
-      <c r="L93" s="87"/>
+      <c r="C93" s="84">
+        <v>25.138293999999998</v>
+      </c>
+      <c r="D93" s="85">
+        <v>19.827280999999999</v>
+      </c>
+      <c r="E93" s="85">
+        <v>2.115335</v>
+      </c>
+      <c r="F93" s="85">
+        <v>29.910066</v>
+      </c>
+      <c r="G93" s="86">
+        <v>90.481680999999995</v>
+      </c>
+      <c r="H93" s="87">
+        <v>4673.6940919999997</v>
+      </c>
+      <c r="I93" s="88">
+        <v>3681.7140810000001</v>
+      </c>
+      <c r="J93" s="88">
+        <v>397.62201399999998</v>
+      </c>
+      <c r="K93" s="88">
+        <v>5569.0918119999997</v>
+      </c>
+      <c r="L93" s="86">
+        <v>16902.868041999998</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="84" t="s">
+      <c r="A94" s="76"/>
+      <c r="B94" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="C94" s="85"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="87"/>
-      <c r="H94" s="88"/>
-      <c r="I94" s="89"/>
-      <c r="J94" s="89"/>
-      <c r="K94" s="89"/>
-      <c r="L94" s="87"/>
+      <c r="C94" s="84">
+        <v>17.803455</v>
+      </c>
+      <c r="D94" s="85">
+        <v>13.679781999999999</v>
+      </c>
+      <c r="E94" s="85">
+        <v>0.28274700000000003</v>
+      </c>
+      <c r="F94" s="85">
+        <v>18.935214999999999</v>
+      </c>
+      <c r="G94" s="86">
+        <v>115.047884</v>
+      </c>
+      <c r="H94" s="87">
+        <v>120933.21690699999</v>
+      </c>
+      <c r="I94" s="88">
+        <v>91030.655402999997</v>
+      </c>
+      <c r="J94" s="88">
+        <v>2300.9768789999998</v>
+      </c>
+      <c r="K94" s="88">
+        <v>127307.22334</v>
+      </c>
+      <c r="L94" s="86">
+        <v>802915.12964099995</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="84" t="s">
+      <c r="A95" s="76"/>
+      <c r="B95" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="C95" s="85"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="86"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="89"/>
-      <c r="J95" s="89"/>
-      <c r="K95" s="89"/>
-      <c r="L95" s="87"/>
+      <c r="C95" s="84">
+        <v>16.640711</v>
+      </c>
+      <c r="D95" s="85">
+        <v>12.282949</v>
+      </c>
+      <c r="E95" s="85">
+        <v>1.3934500000000001</v>
+      </c>
+      <c r="F95" s="85">
+        <v>21.486039000000002</v>
+      </c>
+      <c r="G95" s="86">
+        <v>56.617713000000002</v>
+      </c>
+      <c r="H95" s="87">
+        <v>56401.521536</v>
+      </c>
+      <c r="I95" s="88">
+        <v>41668.839840000001</v>
+      </c>
+      <c r="J95" s="88">
+        <v>4493.9402760000003</v>
+      </c>
+      <c r="K95" s="88">
+        <v>72343.351437999998</v>
+      </c>
+      <c r="L95" s="86">
+        <v>185900.17078799999</v>
+      </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="77"/>
-      <c r="B96" s="90" t="s">
+      <c r="A96" s="76"/>
+      <c r="B96" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="91"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="93"/>
-      <c r="H96" s="94"/>
-      <c r="I96" s="95"/>
-      <c r="J96" s="95"/>
-      <c r="K96" s="95"/>
-      <c r="L96" s="93"/>
+      <c r="C96" s="90">
+        <v>21.962743</v>
+      </c>
+      <c r="D96" s="91">
+        <v>14.903153</v>
+      </c>
+      <c r="E96" s="91">
+        <v>0.553979</v>
+      </c>
+      <c r="F96" s="91">
+        <v>25.058176</v>
+      </c>
+      <c r="G96" s="92">
+        <v>35.455348000000001</v>
+      </c>
+      <c r="H96" s="93">
+        <v>132699.525486</v>
+      </c>
+      <c r="I96" s="94">
+        <v>86447.269753</v>
+      </c>
+      <c r="J96" s="94">
+        <v>2447.458772</v>
+      </c>
+      <c r="K96" s="94">
+        <v>152367.22580499999</v>
+      </c>
+      <c r="L96" s="92">
+        <v>221186.56689799999</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="101" t="s">
+      <c r="A97" s="76"/>
+      <c r="B97" s="100" t="s">
         <v>162</v>
       </c>
-      <c r="C97" s="102"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="104"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="106"/>
-      <c r="J97" s="106"/>
-      <c r="K97" s="106"/>
-      <c r="L97" s="104"/>
+      <c r="C97" s="101">
+        <v>14.685140000000001</v>
+      </c>
+      <c r="D97" s="102">
+        <v>9.7706870000000006</v>
+      </c>
+      <c r="E97" s="102">
+        <v>0.64000699999999999</v>
+      </c>
+      <c r="F97" s="102">
+        <v>18.102283</v>
+      </c>
+      <c r="G97" s="103">
+        <v>57.312385999999996</v>
+      </c>
+      <c r="H97" s="104">
+        <v>206565.20733899999</v>
+      </c>
+      <c r="I97" s="105">
+        <v>131884.98579400001</v>
+      </c>
+      <c r="J97" s="105">
+        <v>8782.856957</v>
+      </c>
+      <c r="K97" s="105">
+        <v>256424.066444</v>
+      </c>
+      <c r="L97" s="103">
+        <v>731374.70389</v>
+      </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="77"/>
-      <c r="B98" s="90" t="s">
+      <c r="A98" s="76"/>
+      <c r="B98" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="C98" s="91"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="93"/>
-      <c r="H98" s="94"/>
-      <c r="I98" s="95"/>
-      <c r="J98" s="95"/>
-      <c r="K98" s="95"/>
-      <c r="L98" s="93"/>
+      <c r="C98" s="90">
+        <v>14.073286</v>
+      </c>
+      <c r="D98" s="91">
+        <v>7.2102870000000001</v>
+      </c>
+      <c r="E98" s="91">
+        <v>0.246369</v>
+      </c>
+      <c r="F98" s="91">
+        <v>17.539477999999999</v>
+      </c>
+      <c r="G98" s="92">
+        <v>58.577128000000002</v>
+      </c>
+      <c r="H98" s="93">
+        <v>249466.71526699999</v>
+      </c>
+      <c r="I98" s="94">
+        <v>120386.51767099999</v>
+      </c>
+      <c r="J98" s="94">
+        <v>3931.0112709999999</v>
+      </c>
+      <c r="K98" s="94">
+        <v>306807.48243899998</v>
+      </c>
+      <c r="L98" s="92">
+        <v>1003503.789586</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
-      <c r="B99" s="109"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="97"/>
-      <c r="H99" s="100"/>
-      <c r="I99" s="100"/>
-      <c r="J99" s="100"/>
-      <c r="K99" s="100"/>
-      <c r="L99" s="97"/>
+      <c r="A99" s="107"/>
+      <c r="B99" s="108"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="96"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="96"/>
+      <c r="G99" s="96"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="99"/>
+      <c r="J99" s="99"/>
+      <c r="K99" s="99"/>
+      <c r="L99" s="96"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C100" s="110"/>
-      <c r="D100" s="110"/>
-      <c r="E100" s="110"/>
-      <c r="F100" s="110"/>
-      <c r="G100" s="110"/>
-      <c r="H100" s="111"/>
-      <c r="I100" s="111"/>
-      <c r="J100" s="111"/>
-      <c r="K100" s="111"/>
-      <c r="L100" s="110"/>
+      <c r="C100" s="109"/>
+      <c r="D100" s="109"/>
+      <c r="E100" s="109"/>
+      <c r="F100" s="109"/>
+      <c r="G100" s="109"/>
+      <c r="H100" s="110"/>
+      <c r="I100" s="110"/>
+      <c r="J100" s="110"/>
+      <c r="K100" s="110"/>
+      <c r="L100" s="109"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C101" s="110"/>
-      <c r="D101" s="110"/>
-      <c r="E101" s="110"/>
-      <c r="F101" s="110"/>
-      <c r="G101" s="110"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="111"/>
-      <c r="J101" s="111"/>
-      <c r="K101" s="111"/>
-      <c r="L101" s="110"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="109"/>
+      <c r="E101" s="109"/>
+      <c r="F101" s="109"/>
+      <c r="G101" s="109"/>
+      <c r="H101" s="110"/>
+      <c r="I101" s="110"/>
+      <c r="J101" s="110"/>
+      <c r="K101" s="110"/>
+      <c r="L101" s="109"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C102" s="110"/>
-      <c r="D102" s="110"/>
-      <c r="E102" s="110"/>
-      <c r="F102" s="110"/>
-      <c r="G102" s="110"/>
-      <c r="H102" s="111"/>
-      <c r="I102" s="111"/>
-      <c r="J102" s="111"/>
-      <c r="K102" s="111"/>
-      <c r="L102" s="110"/>
+      <c r="C102" s="109"/>
+      <c r="D102" s="109"/>
+      <c r="E102" s="109"/>
+      <c r="F102" s="109"/>
+      <c r="G102" s="109"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110"/>
+      <c r="J102" s="110"/>
+      <c r="K102" s="110"/>
+      <c r="L102" s="109"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C103" s="110"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="110"/>
-      <c r="F103" s="110"/>
-      <c r="G103" s="110"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="111"/>
-      <c r="J103" s="111"/>
-      <c r="K103" s="111"/>
-      <c r="L103" s="110"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="109"/>
+      <c r="G103" s="109"/>
+      <c r="H103" s="110"/>
+      <c r="I103" s="110"/>
+      <c r="J103" s="110"/>
+      <c r="K103" s="110"/>
+      <c r="L103" s="109"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C104" s="110"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="110"/>
-      <c r="F104" s="110"/>
-      <c r="G104" s="110"/>
-      <c r="H104" s="111"/>
-      <c r="I104" s="111"/>
-      <c r="J104" s="111"/>
-      <c r="K104" s="111"/>
-      <c r="L104" s="110"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="109"/>
+      <c r="F104" s="109"/>
+      <c r="G104" s="109"/>
+      <c r="H104" s="110"/>
+      <c r="I104" s="110"/>
+      <c r="J104" s="110"/>
+      <c r="K104" s="110"/>
+      <c r="L104" s="109"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C105" s="110"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="110"/>
-      <c r="F105" s="110"/>
-      <c r="G105" s="110"/>
-      <c r="H105" s="111"/>
-      <c r="I105" s="111"/>
-      <c r="J105" s="111"/>
-      <c r="K105" s="111"/>
-      <c r="L105" s="110"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="109"/>
+      <c r="E105" s="109"/>
+      <c r="F105" s="109"/>
+      <c r="G105" s="109"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="110"/>
+      <c r="J105" s="110"/>
+      <c r="K105" s="110"/>
+      <c r="L105" s="109"/>
     </row>
     <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="112"/>
-      <c r="C106" s="110"/>
-      <c r="D106" s="110"/>
-      <c r="E106" s="110"/>
-      <c r="F106" s="110"/>
-      <c r="G106" s="110"/>
-      <c r="H106" s="111"/>
-      <c r="I106" s="111"/>
-      <c r="J106" s="111"/>
-      <c r="K106" s="111"/>
-      <c r="L106" s="110"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="109"/>
+      <c r="D106" s="109"/>
+      <c r="E106" s="109"/>
+      <c r="F106" s="109"/>
+      <c r="G106" s="109"/>
+      <c r="H106" s="110"/>
+      <c r="I106" s="110"/>
+      <c r="J106" s="110"/>
+      <c r="K106" s="110"/>
+      <c r="L106" s="109"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="113" t="s">
+      <c r="B107" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="C107" s="110"/>
-      <c r="D107" s="110"/>
-      <c r="E107" s="110"/>
-      <c r="F107" s="110"/>
-      <c r="G107" s="110"/>
-      <c r="H107" s="111"/>
-      <c r="I107" s="111"/>
-      <c r="J107" s="111"/>
-      <c r="K107" s="111"/>
-      <c r="L107" s="110"/>
+      <c r="C107" s="109"/>
+      <c r="D107" s="109"/>
+      <c r="E107" s="109"/>
+      <c r="F107" s="109"/>
+      <c r="G107" s="109"/>
+      <c r="H107" s="110"/>
+      <c r="I107" s="110"/>
+      <c r="J107" s="110"/>
+      <c r="K107" s="110"/>
+      <c r="L107" s="109"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="110"/>
-      <c r="D108" s="110"/>
-      <c r="E108" s="110"/>
-      <c r="F108" s="110"/>
-      <c r="G108" s="110"/>
-      <c r="H108" s="111"/>
-      <c r="I108" s="111"/>
-      <c r="J108" s="111"/>
-      <c r="K108" s="111"/>
-      <c r="L108" s="110"/>
+      <c r="C108" s="109"/>
+      <c r="D108" s="109"/>
+      <c r="E108" s="109"/>
+      <c r="F108" s="109"/>
+      <c r="G108" s="109"/>
+      <c r="H108" s="110"/>
+      <c r="I108" s="110"/>
+      <c r="J108" s="110"/>
+      <c r="K108" s="110"/>
+      <c r="L108" s="109"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="110"/>
-      <c r="D109" s="110"/>
-      <c r="E109" s="110"/>
-      <c r="F109" s="110"/>
-      <c r="G109" s="110"/>
-      <c r="H109" s="111"/>
-      <c r="I109" s="111"/>
-      <c r="J109" s="111"/>
-      <c r="K109" s="111"/>
-      <c r="L109" s="110"/>
+      <c r="C109" s="109"/>
+      <c r="D109" s="109"/>
+      <c r="E109" s="109"/>
+      <c r="F109" s="109"/>
+      <c r="G109" s="109"/>
+      <c r="H109" s="110"/>
+      <c r="I109" s="110"/>
+      <c r="J109" s="110"/>
+      <c r="K109" s="110"/>
+      <c r="L109" s="109"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="110"/>
-      <c r="D110" s="110"/>
-      <c r="E110" s="110"/>
-      <c r="F110" s="110"/>
-      <c r="G110" s="110"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="111"/>
-      <c r="J110" s="111"/>
-      <c r="K110" s="111"/>
-      <c r="L110" s="110"/>
+      <c r="C110" s="109"/>
+      <c r="D110" s="109"/>
+      <c r="E110" s="109"/>
+      <c r="F110" s="109"/>
+      <c r="G110" s="109"/>
+      <c r="H110" s="110"/>
+      <c r="I110" s="110"/>
+      <c r="J110" s="110"/>
+      <c r="K110" s="110"/>
+      <c r="L110" s="109"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="117" t="s">
+      <c r="B111" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="110"/>
-      <c r="D111" s="110"/>
-      <c r="E111" s="110"/>
-      <c r="F111" s="110"/>
-      <c r="G111" s="110"/>
-      <c r="H111" s="111"/>
-      <c r="I111" s="111"/>
-      <c r="J111" s="111"/>
-      <c r="K111" s="111"/>
-      <c r="L111" s="110"/>
+      <c r="C111" s="109"/>
+      <c r="D111" s="109"/>
+      <c r="E111" s="109"/>
+      <c r="F111" s="109"/>
+      <c r="G111" s="109"/>
+      <c r="H111" s="110"/>
+      <c r="I111" s="110"/>
+      <c r="J111" s="110"/>
+      <c r="K111" s="110"/>
+      <c r="L111" s="109"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C112" s="110"/>
-      <c r="D112" s="110"/>
-      <c r="E112" s="110"/>
-      <c r="F112" s="110"/>
-      <c r="G112" s="110"/>
-      <c r="H112" s="111"/>
-      <c r="I112" s="111"/>
-      <c r="J112" s="111"/>
-      <c r="K112" s="111"/>
-      <c r="L112" s="110"/>
+      <c r="C112" s="109"/>
+      <c r="D112" s="109"/>
+      <c r="E112" s="109"/>
+      <c r="F112" s="109"/>
+      <c r="G112" s="109"/>
+      <c r="H112" s="110"/>
+      <c r="I112" s="110"/>
+      <c r="J112" s="110"/>
+      <c r="K112" s="110"/>
+      <c r="L112" s="109"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
-      <c r="C113" s="110"/>
-      <c r="D113" s="110"/>
-      <c r="E113" s="110"/>
-      <c r="F113" s="110"/>
-      <c r="G113" s="110"/>
-      <c r="H113" s="111"/>
-      <c r="I113" s="111"/>
-      <c r="J113" s="111"/>
-      <c r="K113" s="111"/>
-      <c r="L113" s="110"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="109"/>
+      <c r="D113" s="109"/>
+      <c r="E113" s="109"/>
+      <c r="F113" s="109"/>
+      <c r="G113" s="109"/>
+      <c r="H113" s="110"/>
+      <c r="I113" s="110"/>
+      <c r="J113" s="110"/>
+      <c r="K113" s="110"/>
+      <c r="L113" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0BFD1D6D-9CDD-47DD-BCA3-F9729EBCAC65}"/>
-    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3B7D685E-7143-4310-AD52-E3641095E59E}"/>
-    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E27E8CA7-A0DC-46B4-87D4-04322508341E}"/>
-    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{420B2D3D-452D-4768-A887-F52B0FAA0D02}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{090B15F5-BBF1-4D4F-9205-830057C70126}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{80AFED74-AECA-431E-914D-244A4370386F}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AA83B53D-DF39-4D58-A2BD-5D9011D4133E}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{6EF38E30-1464-4FED-BF2D-DEA755F548EB}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{97E4197C-18C3-4391-9FC8-A28E71035D2B}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{0EA84F4F-EDED-490E-A71F-0C12377B46D6}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{CF9EDD7A-93DF-4699-8F0F-B559B017583B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{FB6FD043-5790-4A07-B648-1E2ADFEC2A04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab13.xlsx
+++ b/AfDD_2025_Annex_Table_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62B4A7D-BFDE-4F8D-8026-8A3D0BCE2E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E0E9E3-BB65-45C9-AE1A-A670F228097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2E5B8B3A-8021-452C-AA72-0549C1B3D2AD}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2D0658-E909-4647-9ACD-87176E82A8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -540,10 +540,10 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: IMF World Economic Outlook Database April 2025.</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+  </si>
+  <si>
+    <t>Source: IMF World Economic Outlook Database October 2025.</t>
   </si>
   <si>
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
@@ -1549,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E81CC3-9B91-4405-A03E-8B04F3E1FB63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBA9E70-6E04-47FB-9E02-436C362C622E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1557,17 +1557,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.140625" style="114" customWidth="1"/>
-    <col min="8" max="11" width="14.140625" style="115" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="114" customWidth="1"/>
-    <col min="13" max="15" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.1796875" style="114" customWidth="1"/>
+    <col min="8" max="11" width="14.1796875" style="115" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="114" customWidth="1"/>
+    <col min="13" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1582,7 +1582,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>62684.087850999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>4396.176993</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="20">
-        <v>25.081178999999999</v>
+        <v>25.398841000000001</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>15</v>
@@ -1713,13 +1713,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="26">
-        <v>29.672971</v>
+        <v>30.076913000000001</v>
       </c>
       <c r="G5" s="27">
-        <v>37.869599000000001</v>
+        <v>38.385123</v>
       </c>
       <c r="H5" s="23">
-        <v>1216.7254439999999</v>
+        <v>1215.5877760000001</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>15</v>
@@ -1734,7 +1734,7 @@
         <v>1837.110831</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>1416.887377</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>8301.5640970000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>16869.038331</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>8630.3647519999995</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="29">
-        <v>27.018170000000001</v>
+        <v>27.113665999999998</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>15</v>
@@ -1903,13 +1903,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="26">
-        <v>32.542152999999999</v>
+        <v>32.653896000000003</v>
       </c>
       <c r="G10" s="27">
-        <v>68.671756999999999</v>
+        <v>68.819018</v>
       </c>
       <c r="H10" s="30">
-        <v>113686.517821</v>
+        <v>113844.218788</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>15</v>
@@ -1918,13 +1918,13 @@
         <v>15</v>
       </c>
       <c r="K10" s="28">
-        <v>136930.22653099999</v>
+        <v>137106.40368399999</v>
       </c>
       <c r="L10" s="27">
         <v>288955.65702699998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>24537.323121000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="32">
-        <v>15.34802</v>
+        <v>10.546547</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>15</v>
@@ -1979,10 +1979,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="33">
-        <v>18.572858</v>
+        <v>12.785477</v>
       </c>
       <c r="G12" s="34">
-        <v>58.171866999999999</v>
+        <v>39.891271000000003</v>
       </c>
       <c r="H12" s="35">
         <v>5527.7535109999999</v>
@@ -1994,49 +1994,49 @@
         <v>15</v>
       </c>
       <c r="K12" s="36">
-        <v>6689.213667</v>
+        <v>6701.2419739999996</v>
       </c>
       <c r="L12" s="34">
-        <v>20951.220174999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20908.180396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="37"/>
       <c r="B13" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="39">
-        <v>24.896981</v>
+        <v>24.442209999999999</v>
       </c>
       <c r="D13" s="40">
-        <v>21.626007000000001</v>
+        <v>21.212426000000001</v>
       </c>
       <c r="E13" s="40">
-        <v>0.14965999999999999</v>
+        <v>0.14679900000000001</v>
       </c>
       <c r="F13" s="40">
-        <v>28.574259999999999</v>
+        <v>28.053388000000002</v>
       </c>
       <c r="G13" s="41">
-        <v>70.836164999999994</v>
+        <v>69.476742000000002</v>
       </c>
       <c r="H13" s="42">
-        <v>159800.30214499999</v>
+        <v>159956.865444</v>
       </c>
       <c r="I13" s="43">
-        <v>138527.878429</v>
+        <v>138526.74076099999</v>
       </c>
       <c r="J13" s="43">
         <v>783.57396300000005</v>
       </c>
       <c r="K13" s="43">
-        <v>186902.846976</v>
+        <v>187091.052436</v>
       </c>
       <c r="L13" s="41">
-        <v>438579.43055400002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>438536.39077599999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>35</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="29">
-        <v>25.093516999999999</v>
+        <v>23.79167</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>15</v>
@@ -2053,13 +2053,13 @@
         <v>15</v>
       </c>
       <c r="F14" s="26">
-        <v>30.335681000000001</v>
+        <v>28.390910999999999</v>
       </c>
       <c r="G14" s="27">
         <v>66.467376000000002</v>
       </c>
       <c r="H14" s="30">
-        <v>842.05432900000005</v>
+        <v>798.36870399999998</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>15</v>
@@ -2068,13 +2068,13 @@
         <v>15</v>
       </c>
       <c r="K14" s="28">
-        <v>1017.963779</v>
+        <v>952.70382900000004</v>
       </c>
       <c r="L14" s="27">
         <v>2230.4224009999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>21235.903549999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>39</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="29">
-        <v>13.664355</v>
+        <v>13.400055</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>15</v>
@@ -2129,13 +2129,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="26">
-        <v>19.685497000000002</v>
+        <v>19.201673</v>
       </c>
       <c r="G16" s="27">
-        <v>48.524895000000001</v>
+        <v>46.939914999999999</v>
       </c>
       <c r="H16" s="30">
-        <v>353.23569099999997</v>
+        <v>358.10002100000003</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>15</v>
@@ -2144,13 +2144,13 @@
         <v>15</v>
       </c>
       <c r="K16" s="28">
-        <v>508.88754899999998</v>
+        <v>513.14111700000001</v>
       </c>
       <c r="L16" s="27">
         <v>1254.4115750000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="45">
-        <v>11.753382</v>
+        <v>11.688492</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>15</v>
@@ -2167,10 +2167,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="46">
-        <v>13.053660000000001</v>
+        <v>12.981591</v>
       </c>
       <c r="G17" s="47">
-        <v>41.562809999999999</v>
+        <v>41.562817000000003</v>
       </c>
       <c r="H17" s="48">
         <v>1984.0657229999999</v>
@@ -2185,10 +2185,10 @@
         <v>2203.563122</v>
       </c>
       <c r="L17" s="47">
-        <v>7016.137549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7055.0898500000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>13087.981184</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>45</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="20">
-        <v>12.963286</v>
+        <v>12.15643</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>15</v>
@@ -2243,13 +2243,13 @@
         <v>15</v>
       </c>
       <c r="F19" s="21">
-        <v>14.366540000000001</v>
+        <v>13.835208</v>
       </c>
       <c r="G19" s="22">
-        <v>24.685264</v>
+        <v>25.263715999999999</v>
       </c>
       <c r="H19" s="23">
-        <v>7172.1842699999997</v>
+        <v>7016.4646739999998</v>
       </c>
       <c r="I19" s="24" t="s">
         <v>15</v>
@@ -2258,13 +2258,13 @@
         <v>15</v>
       </c>
       <c r="K19" s="24">
-        <v>7948.5608540000003</v>
+        <v>7985.4244230000004</v>
       </c>
       <c r="L19" s="22">
-        <v>13657.591183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14581.746284000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>5169.1898819999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>14191.556728</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>25.632504000000001</v>
       </c>
       <c r="G22" s="53">
-        <v>59.227938000000002</v>
+        <v>85.057891999999995</v>
       </c>
       <c r="H22" s="54">
         <v>127.47744</v>
@@ -2375,46 +2375,46 @@
         <v>135.488124</v>
       </c>
       <c r="L22" s="53">
-        <v>313.06664899999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>449.59845300000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="37"/>
       <c r="B23" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="39">
-        <v>14.681854</v>
+        <v>14.361827</v>
       </c>
       <c r="D23" s="40">
-        <v>10.112347</v>
+        <v>9.9708240000000004</v>
       </c>
       <c r="E23" s="40">
-        <v>0.90790499999999996</v>
+        <v>0.78597399999999995</v>
       </c>
       <c r="F23" s="40">
-        <v>16.257581999999999</v>
+        <v>16.003599000000001</v>
       </c>
       <c r="G23" s="41">
-        <v>46.549559000000002</v>
+        <v>46.498548</v>
       </c>
       <c r="H23" s="42">
-        <v>24695.018438999999</v>
+        <v>24500.477548999999</v>
       </c>
       <c r="I23" s="43">
         <v>16852.323808000001</v>
       </c>
       <c r="J23" s="43">
-        <v>1532.1207890000001</v>
+        <v>1344.5394329999999</v>
       </c>
       <c r="K23" s="43">
-        <v>27217.403875</v>
+        <v>27193.261061000001</v>
       </c>
       <c r="L23" s="41">
-        <v>78156.260699999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79255.899906999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>54</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>19.951547999999999</v>
       </c>
       <c r="G24" s="59">
-        <v>26.275780999999998</v>
+        <v>26.275725000000001</v>
       </c>
       <c r="H24" s="60">
         <v>218.17935499999999</v>
@@ -2446,13 +2446,13 @@
         <v>15</v>
       </c>
       <c r="K24" s="61">
-        <v>254.00017299999999</v>
+        <v>254.00017199999999</v>
       </c>
       <c r="L24" s="59">
-        <v>334.51303799999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>334.51232599999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>56</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>1366.565601</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>60</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>53374.380634000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>62</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>74970.181905000005</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>64</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>13.897888999999999</v>
       </c>
       <c r="G29" s="27">
-        <v>49.537604000000002</v>
+        <v>49.439596000000002</v>
       </c>
       <c r="H29" s="30">
         <v>1589.13474</v>
@@ -2639,10 +2639,10 @@
         <v>1995.0047420000001</v>
       </c>
       <c r="L29" s="27">
-        <v>7110.9903270000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7096.9214910000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>66</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="26">
-        <v>30.809909000000001</v>
+        <v>30.815653000000001</v>
       </c>
       <c r="G30" s="27">
         <v>93.836241000000001</v>
@@ -2674,13 +2674,13 @@
         <v>15</v>
       </c>
       <c r="K30" s="28">
-        <v>3538.31738</v>
+        <v>3538.977018</v>
       </c>
       <c r="L30" s="27">
         <v>10776.481175000001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>68</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>7442.0291729999999</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>70</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>38.827593999999998</v>
       </c>
       <c r="G32" s="27">
-        <v>71.248347999999993</v>
+        <v>70.964425000000006</v>
       </c>
       <c r="H32" s="30">
         <v>492.73809</v>
@@ -2753,10 +2753,10 @@
         <v>578.48287700000003</v>
       </c>
       <c r="L32" s="27">
-        <v>1061.5117929999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1057.281694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>72</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>74</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>44.114078999999997</v>
       </c>
       <c r="G34" s="47">
-        <v>51.086601999999999</v>
+        <v>50.182183000000002</v>
       </c>
       <c r="H34" s="48">
         <v>2068.2246399999999</v>
@@ -2829,10 +2829,10 @@
         <v>2620.5760749999999</v>
       </c>
       <c r="L34" s="47">
-        <v>3034.775486</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2981.0489109999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>76</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>77</v>
       </c>
       <c r="C35" s="29">
-        <v>9.5482940000000003</v>
+        <v>9.5484329999999993</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>15</v>
@@ -2849,10 +2849,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="26">
-        <v>9.835502</v>
+        <v>9.8356449999999995</v>
       </c>
       <c r="G35" s="27">
-        <v>189.63561899999999</v>
+        <v>189.638385</v>
       </c>
       <c r="H35" s="30">
         <v>3355.4590109999999</v>
@@ -2870,7 +2870,7 @@
         <v>66641.702019000004</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>78</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>29492.744945999999</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
         <v>80</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>81</v>
       </c>
       <c r="C37" s="32">
-        <v>13.986977</v>
+        <v>14.202128</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>15</v>
@@ -2925,13 +2925,13 @@
         <v>15</v>
       </c>
       <c r="F37" s="33">
-        <v>21.429967000000001</v>
+        <v>21.963806000000002</v>
       </c>
       <c r="G37" s="34">
-        <v>50.348004000000003</v>
+        <v>50.344724999999997</v>
       </c>
       <c r="H37" s="35">
-        <v>5987.1742780000004</v>
+        <v>6079.6665849999999</v>
       </c>
       <c r="I37" s="36" t="s">
         <v>15</v>
@@ -2940,49 +2940,49 @@
         <v>15</v>
       </c>
       <c r="K37" s="36">
-        <v>9173.1722329999993</v>
+        <v>9402.2962490000009</v>
       </c>
       <c r="L37" s="34">
         <v>21551.639077</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="39">
-        <v>14.035757</v>
+        <v>14.057461</v>
       </c>
       <c r="D38" s="40">
-        <v>10.496962</v>
+        <v>10.522959</v>
       </c>
       <c r="E38" s="40">
-        <v>0.81893700000000003</v>
+        <v>0.83174499999999996</v>
       </c>
       <c r="F38" s="40">
-        <v>18.267994999999999</v>
+        <v>18.321967000000001</v>
       </c>
       <c r="G38" s="41">
-        <v>74.764630999999994</v>
+        <v>74.749353999999997</v>
       </c>
       <c r="H38" s="42">
-        <v>60041.939283</v>
+        <v>60134.43159</v>
       </c>
       <c r="I38" s="43">
-        <v>45331.730626999997</v>
+        <v>45442.394154000001</v>
       </c>
       <c r="J38" s="43">
-        <v>3249.1628089999999</v>
+        <v>3303.598238</v>
       </c>
       <c r="K38" s="43">
-        <v>78944.047116999995</v>
+        <v>79173.830768999993</v>
       </c>
       <c r="L38" s="41">
-        <v>277157.515174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>277085.48895099998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>83</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="63">
-        <v>26.229406000000001</v>
+        <v>26.229399999999998</v>
       </c>
       <c r="D39" s="64" t="s">
         <v>15</v>
@@ -2999,10 +2999,10 @@
         <v>15</v>
       </c>
       <c r="F39" s="64">
-        <v>32.54607</v>
+        <v>32.546061999999999</v>
       </c>
       <c r="G39" s="65">
-        <v>55.144638</v>
+        <v>55.144624999999998</v>
       </c>
       <c r="H39" s="66">
         <v>48747.372499999998</v>
@@ -3020,7 +3020,7 @@
         <v>102486.354479</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>85</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>380558.011329</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>87</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>89</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>4969.1278149999998</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>91</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>98493.360795999994</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
         <v>93</v>
       </c>
@@ -3210,25 +3210,25 @@
         <v>37323.588818999997</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="37"/>
       <c r="B45" s="38" t="s">
         <v>95</v>
       </c>
       <c r="C45" s="39">
-        <v>23.216887</v>
+        <v>23.216885999999999</v>
       </c>
       <c r="D45" s="40">
-        <v>15.95844</v>
+        <v>15.958439</v>
       </c>
       <c r="E45" s="40">
         <v>6.6767999999999994E-2</v>
       </c>
       <c r="F45" s="40">
-        <v>29.201452</v>
+        <v>29.201450000000001</v>
       </c>
       <c r="G45" s="41">
-        <v>78.887193999999994</v>
+        <v>78.887190000000004</v>
       </c>
       <c r="H45" s="42">
         <v>205194.73216000001</v>
@@ -3246,7 +3246,7 @@
         <v>623830.44323800004</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>96</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>8900.6717960000005</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>98</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="29">
-        <v>20.319407000000002</v>
+        <v>20.3597</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>15</v>
@@ -3301,10 +3301,10 @@
         <v>15</v>
       </c>
       <c r="F47" s="26">
-        <v>27.754290999999998</v>
+        <v>27.809327</v>
       </c>
       <c r="G47" s="27">
-        <v>55.369129000000001</v>
+        <v>55.478588999999999</v>
       </c>
       <c r="H47" s="30">
         <v>4012.4633130000002</v>
@@ -3319,10 +3319,10 @@
         <v>5480.626096</v>
       </c>
       <c r="L47" s="27">
-        <v>10933.714615000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10933.648229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>100</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>30.793301</v>
       </c>
       <c r="G48" s="47">
-        <v>149.06310999999999</v>
+        <v>149.522109</v>
       </c>
       <c r="H48" s="48">
         <v>477.95637199999999</v>
@@ -3357,10 +3357,10 @@
         <v>632.18012699999997</v>
       </c>
       <c r="L48" s="47">
-        <v>3060.2349599999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3069.658124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>102</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>36536.778179000001</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>104</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>1699.58916</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>106</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>27.214252999999999</v>
       </c>
       <c r="G51" s="22">
-        <v>79.178730999999999</v>
+        <v>86.875066000000004</v>
       </c>
       <c r="H51" s="23">
         <v>12072.191365000001</v>
@@ -3471,10 +3471,10 @@
         <v>21639.200202</v>
       </c>
       <c r="L51" s="22">
-        <v>62958.347699999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69078.027910000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>108</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="29">
-        <v>13.466252000000001</v>
+        <v>13.395773999999999</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>15</v>
@@ -3494,10 +3494,10 @@
         <v>15.100757</v>
       </c>
       <c r="G52" s="27">
-        <v>42.879624</v>
+        <v>40.569254999999998</v>
       </c>
       <c r="H52" s="30">
-        <v>2197.7419420000001</v>
+        <v>2186.2396669999998</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>15</v>
@@ -3509,10 +3509,10 @@
         <v>2464.4990720000001</v>
       </c>
       <c r="L52" s="27">
-        <v>6998.1124989999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6621.0517520000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>110</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>1357.0604269999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>112</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>1869.5085039999999</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>114</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>9961.4056469999996</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>116</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>7660.9720379999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>118</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="29">
-        <v>7.0773780000000004</v>
+        <v>5.1218219999999999</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>15</v>
@@ -3681,10 +3681,10 @@
         <v>15</v>
       </c>
       <c r="F57" s="26">
-        <v>12.558804</v>
+        <v>9.0886709999999997</v>
       </c>
       <c r="G57" s="27">
-        <v>36.788648999999999</v>
+        <v>26.623549000000001</v>
       </c>
       <c r="H57" s="30">
         <v>31216.444346</v>
@@ -3702,7 +3702,7 @@
         <v>162265.00857800001</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>120</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>121</v>
       </c>
       <c r="C58" s="29">
-        <v>19.481874000000001</v>
+        <v>19.919212999999999</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>15</v>
@@ -3719,13 +3719,13 @@
         <v>15</v>
       </c>
       <c r="F58" s="26">
-        <v>30.973499</v>
+        <v>33.592416999999998</v>
       </c>
       <c r="G58" s="27">
-        <v>89.386596999999995</v>
+        <v>98.555925999999999</v>
       </c>
       <c r="H58" s="30">
-        <v>5373.8077990000002</v>
+        <v>5494.4416220000003</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>15</v>
@@ -3734,13 +3734,13 @@
         <v>15</v>
       </c>
       <c r="K58" s="28">
-        <v>8543.6147930000006</v>
+        <v>9266.0075039999992</v>
       </c>
       <c r="L58" s="27">
-        <v>24656.066716000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27185.300447000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>122</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="29">
-        <v>15.908913</v>
+        <v>12.406404</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>15</v>
@@ -3757,13 +3757,13 @@
         <v>15</v>
       </c>
       <c r="F59" s="26">
-        <v>20.257985000000001</v>
+        <v>16.755476000000002</v>
       </c>
       <c r="G59" s="27">
         <v>47.061891000000003</v>
       </c>
       <c r="H59" s="30">
-        <v>1139.8065389999999</v>
+        <v>888.86653899999999</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>15</v>
@@ -3772,13 +3772,13 @@
         <v>15</v>
       </c>
       <c r="K59" s="28">
-        <v>1451.399216</v>
+        <v>1200.459216</v>
       </c>
       <c r="L59" s="27">
         <v>3371.7861240000002</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
         <v>124</v>
       </c>
@@ -3816,493 +3816,493 @@
         <v>5408.5796419999997</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="37"/>
       <c r="B61" s="38" t="s">
         <v>126</v>
       </c>
       <c r="C61" s="39">
-        <v>10.887579000000001</v>
+        <v>8.8201090000000004</v>
       </c>
       <c r="D61" s="40">
-        <v>7.7925839999999997</v>
+        <v>6.3412730000000002</v>
       </c>
       <c r="E61" s="40">
-        <v>0.53631700000000004</v>
+        <v>0.40241500000000002</v>
       </c>
       <c r="F61" s="40">
-        <v>17.166491000000001</v>
+        <v>13.985123</v>
       </c>
       <c r="G61" s="41">
-        <v>47.181908</v>
+        <v>39.217683999999998</v>
       </c>
       <c r="H61" s="42">
-        <v>80369.364302000002</v>
+        <v>80227.555848999997</v>
       </c>
       <c r="I61" s="43">
-        <v>57657.688612999998</v>
+        <v>57778.322436000002</v>
       </c>
       <c r="J61" s="43">
-        <v>3946.4933529999998</v>
+        <v>3695.5533529999998</v>
       </c>
       <c r="K61" s="43">
-        <v>126567.434286</v>
+        <v>127038.886996</v>
       </c>
       <c r="L61" s="41">
-        <v>347637.83658599999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>355919.04655799997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="69"/>
       <c r="B62" s="70" t="s">
         <v>127</v>
       </c>
       <c r="C62" s="71">
-        <v>18.615424000000001</v>
+        <v>17.542773</v>
       </c>
       <c r="D62" s="72">
-        <v>13.790915999999999</v>
+        <v>12.999188999999999</v>
       </c>
       <c r="E62" s="72">
-        <v>0.35862300000000003</v>
+        <v>0.32502500000000001</v>
       </c>
       <c r="F62" s="72">
-        <v>23.750734999999999</v>
+        <v>22.412229</v>
       </c>
       <c r="G62" s="73">
-        <v>67.181402000000006</v>
+        <v>63.563628999999999</v>
       </c>
       <c r="H62" s="74">
-        <v>530101.35632899997</v>
+        <v>530014.062592</v>
       </c>
       <c r="I62" s="75">
-        <v>392074.07202800002</v>
+        <v>392304.23171099997</v>
       </c>
       <c r="J62" s="75">
-        <v>10132.300492</v>
+        <v>9748.2145650000002</v>
       </c>
       <c r="K62" s="75">
-        <v>672519.17176900001</v>
+        <v>673384.47077599994</v>
       </c>
       <c r="L62" s="73">
-        <v>1765361.4862530001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1774627.2694300001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="69"/>
       <c r="B63" s="70" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="71">
-        <v>30.722653000000001</v>
+        <v>30.646757999999998</v>
       </c>
       <c r="D63" s="72">
-        <v>19.087765000000001</v>
+        <v>19.033269000000001</v>
       </c>
       <c r="E63" s="72">
-        <v>0.127137</v>
+        <v>0.12669800000000001</v>
       </c>
       <c r="F63" s="72">
-        <v>36.602876000000002</v>
+        <v>36.522226000000003</v>
       </c>
       <c r="G63" s="73">
-        <v>85.506292999999999</v>
+        <v>85.363523999999998</v>
       </c>
       <c r="H63" s="74">
-        <v>30811911.243937001</v>
+        <v>30818441.329115</v>
       </c>
       <c r="I63" s="75">
-        <v>17180655.329741001</v>
+        <v>17180828.049552001</v>
       </c>
       <c r="J63" s="75">
-        <v>104343.795757</v>
+        <v>104362.026757</v>
       </c>
       <c r="K63" s="75">
-        <v>36820027.536555</v>
+        <v>36841422.585841</v>
       </c>
       <c r="L63" s="73">
-        <v>89868401.824406996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>89994498.762673005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="76"/>
       <c r="B64" s="77" t="s">
         <v>129</v>
       </c>
       <c r="C64" s="78">
-        <v>28.938859000000001</v>
+        <v>28.910902</v>
       </c>
       <c r="D64" s="79">
-        <v>19.331318</v>
+        <v>19.322998999999999</v>
       </c>
       <c r="E64" s="79">
-        <v>4.9861999999999997E-2</v>
+        <v>4.9776000000000001E-2</v>
       </c>
       <c r="F64" s="79">
-        <v>32.797037000000003</v>
+        <v>32.779268000000002</v>
       </c>
       <c r="G64" s="80">
-        <v>71.811745999999999</v>
+        <v>71.744891999999993</v>
       </c>
       <c r="H64" s="81">
-        <v>1474259.045222</v>
+        <v>1474318.032876</v>
       </c>
       <c r="I64" s="82">
-        <v>982197.90006200003</v>
+        <v>982899.30674399994</v>
       </c>
       <c r="J64" s="82">
-        <v>1529.275746</v>
+        <v>1530.3592410000001</v>
       </c>
       <c r="K64" s="82">
-        <v>1671437.6283259999</v>
+        <v>1672070.9610319999</v>
       </c>
       <c r="L64" s="80">
-        <v>3605333.4862099998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3605554.7876610002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="76"/>
       <c r="B65" s="83" t="s">
         <v>130</v>
       </c>
       <c r="C65" s="84">
-        <v>22.292846000000001</v>
+        <v>22.276236999999998</v>
       </c>
       <c r="D65" s="85">
-        <v>14.374708</v>
+        <v>14.36309</v>
       </c>
       <c r="E65" s="85">
-        <v>3.9496999999999997E-2</v>
+        <v>3.9392000000000003E-2</v>
       </c>
       <c r="F65" s="85">
-        <v>28.549250000000001</v>
+        <v>28.530888999999998</v>
       </c>
       <c r="G65" s="86">
-        <v>68.193054000000004</v>
+        <v>68.120002999999997</v>
       </c>
       <c r="H65" s="87">
-        <v>6142497.4248599997</v>
+        <v>6142596.9620150002</v>
       </c>
       <c r="I65" s="88">
-        <v>3683560.2595190001</v>
+        <v>3683289.2540759998</v>
       </c>
       <c r="J65" s="88">
-        <v>6062.6564689999996</v>
+        <v>6076.6867179999999</v>
       </c>
       <c r="K65" s="88">
-        <v>7724128.9469729997</v>
+        <v>7724720.6085360004</v>
       </c>
       <c r="L65" s="86">
-        <v>17821494.198139001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17815691.675604999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="76"/>
       <c r="B66" s="89" t="s">
         <v>131</v>
       </c>
       <c r="C66" s="90">
-        <v>30.085972999999999</v>
+        <v>29.919830999999999</v>
       </c>
       <c r="D66" s="91">
-        <v>18.791288000000002</v>
+        <v>18.676908999999998</v>
       </c>
       <c r="E66" s="91">
-        <v>0.140537</v>
+        <v>0.13880200000000001</v>
       </c>
       <c r="F66" s="91">
-        <v>35.927022999999998</v>
+        <v>35.739491999999998</v>
       </c>
       <c r="G66" s="92">
-        <v>84.555539999999993</v>
+        <v>84.169409999999999</v>
       </c>
       <c r="H66" s="93">
-        <v>31342012.600265998</v>
+        <v>31348455.391706999</v>
       </c>
       <c r="I66" s="94">
-        <v>17572729.401769999</v>
+        <v>17573132.281264</v>
       </c>
       <c r="J66" s="94">
-        <v>114476.09624899999</v>
+        <v>114110.241322</v>
       </c>
       <c r="K66" s="94">
-        <v>37492546.708324</v>
+        <v>37514807.056616999</v>
       </c>
       <c r="L66" s="92">
-        <v>91633763.310661003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91769126.032103002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="76"/>
       <c r="B67" s="83" t="s">
         <v>132</v>
       </c>
       <c r="C67" s="84">
-        <v>18.784500999999999</v>
+        <v>18.578441999999999</v>
       </c>
       <c r="D67" s="85">
-        <v>12.297146</v>
+        <v>12.173194000000001</v>
       </c>
       <c r="E67" s="85">
-        <v>0.415273</v>
+        <v>0.40135100000000001</v>
       </c>
       <c r="F67" s="85">
-        <v>24.078405</v>
+        <v>23.840471000000001</v>
       </c>
       <c r="G67" s="86">
-        <v>83.364146000000005</v>
+        <v>82.512264000000002</v>
       </c>
       <c r="H67" s="87">
-        <v>188166.79119799999</v>
+        <v>188058.740616</v>
       </c>
       <c r="I67" s="88">
-        <v>117446.870759</v>
+        <v>117556.39661900001</v>
       </c>
       <c r="J67" s="88">
-        <v>4519.4040059999998</v>
+        <v>4382.0045120000004</v>
       </c>
       <c r="K67" s="88">
-        <v>237057.78607599999</v>
+        <v>237271.20165199999</v>
       </c>
       <c r="L67" s="86">
-        <v>734026.82669799996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>734889.64237300004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="76"/>
       <c r="B68" s="83" t="s">
         <v>133</v>
       </c>
       <c r="C68" s="84">
-        <v>16.655854000000001</v>
+        <v>15.117829</v>
       </c>
       <c r="D68" s="85">
-        <v>10.891035</v>
+        <v>9.8801740000000002</v>
       </c>
       <c r="E68" s="85">
-        <v>0.32145699999999999</v>
+        <v>0.27601300000000001</v>
       </c>
       <c r="F68" s="85">
-        <v>22.433477</v>
+        <v>20.397644</v>
       </c>
       <c r="G68" s="86">
-        <v>71.953419999999994</v>
+        <v>65.650998999999999</v>
       </c>
       <c r="H68" s="87">
-        <v>242349.83979500001</v>
+        <v>242212.895674</v>
       </c>
       <c r="I68" s="88">
-        <v>154103.28696699999</v>
+        <v>154223.92079</v>
       </c>
       <c r="J68" s="88">
-        <v>5030.8108119999997</v>
+        <v>4784.1243789999999</v>
       </c>
       <c r="K68" s="88">
-        <v>324958.19496400002</v>
+        <v>325433.90123999998</v>
       </c>
       <c r="L68" s="86">
-        <v>940665.51166399999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>948976.25005999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="76"/>
       <c r="B69" s="83" t="s">
         <v>134</v>
       </c>
       <c r="C69" s="84">
-        <v>16.037410000000001</v>
+        <v>15.897841</v>
       </c>
       <c r="D69" s="85">
-        <v>11.927104</v>
+        <v>11.885044000000001</v>
       </c>
       <c r="E69" s="85">
-        <v>0.91636700000000004</v>
+        <v>0.87057200000000001</v>
       </c>
       <c r="F69" s="85">
-        <v>21.417791999999999</v>
+        <v>21.338106</v>
       </c>
       <c r="G69" s="86">
-        <v>51.731054</v>
+        <v>51.623961000000001</v>
       </c>
       <c r="H69" s="87">
-        <v>47365.009351000001</v>
+        <v>47258.096436</v>
       </c>
       <c r="I69" s="88">
-        <v>34973.615937000002</v>
+        <v>35084.279463999999</v>
       </c>
       <c r="J69" s="88">
-        <v>2606.0770480000001</v>
+        <v>2468.677553</v>
       </c>
       <c r="K69" s="88">
-        <v>63146.823231000002</v>
+        <v>63347.550865999998</v>
       </c>
       <c r="L69" s="86">
-        <v>152379.38417100001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>153249.81269699999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="76"/>
       <c r="B70" s="83" t="s">
         <v>135</v>
       </c>
       <c r="C70" s="84">
-        <v>17.532865000000001</v>
+        <v>17.331755000000001</v>
       </c>
       <c r="D70" s="85">
-        <v>14.072761</v>
+        <v>13.962714999999999</v>
       </c>
       <c r="E70" s="85">
-        <v>0.76559500000000003</v>
+        <v>0.69857899999999995</v>
       </c>
       <c r="F70" s="85">
-        <v>17.388855</v>
+        <v>17.238095999999999</v>
       </c>
       <c r="G70" s="86">
-        <v>58.553961999999999</v>
+        <v>58.431587</v>
       </c>
       <c r="H70" s="87">
-        <v>44861.068067</v>
+        <v>44666.527176000003</v>
       </c>
       <c r="I70" s="88">
         <v>34968.937943999998</v>
       </c>
       <c r="J70" s="88">
-        <v>2142.8010169999998</v>
+        <v>1955.2196610000001</v>
       </c>
       <c r="K70" s="88">
-        <v>45290.536412000001</v>
+        <v>45266.393597000002</v>
       </c>
       <c r="L70" s="86">
-        <v>148282.37772399999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>149382.01693099999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="76"/>
       <c r="B71" s="83" t="s">
         <v>136</v>
       </c>
       <c r="C71" s="84">
-        <v>10.887579000000001</v>
+        <v>8.8201090000000004</v>
       </c>
       <c r="D71" s="85">
-        <v>7.7925839999999997</v>
+        <v>6.3412730000000002</v>
       </c>
       <c r="E71" s="85">
-        <v>0.53631700000000004</v>
+        <v>0.40241500000000002</v>
       </c>
       <c r="F71" s="85">
-        <v>17.166491000000001</v>
+        <v>13.985123</v>
       </c>
       <c r="G71" s="86">
-        <v>47.181908</v>
+        <v>39.217683999999998</v>
       </c>
       <c r="H71" s="87">
-        <v>80369.364302000002</v>
+        <v>80227.555848999997</v>
       </c>
       <c r="I71" s="88">
-        <v>57657.688612999998</v>
+        <v>57778.322436000002</v>
       </c>
       <c r="J71" s="88">
-        <v>3946.4933529999998</v>
+        <v>3695.5533529999998</v>
       </c>
       <c r="K71" s="88">
-        <v>126567.434286</v>
+        <v>127038.886996</v>
       </c>
       <c r="L71" s="86">
-        <v>347637.83658599999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>355919.04655799997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="76"/>
       <c r="B72" s="83" t="s">
         <v>137</v>
       </c>
       <c r="C72" s="84">
-        <v>13.153203</v>
+        <v>13.182326</v>
       </c>
       <c r="D72" s="85">
-        <v>9.5907370000000007</v>
+        <v>9.6256199999999996</v>
       </c>
       <c r="E72" s="85">
-        <v>0.70813300000000001</v>
+        <v>0.72531599999999996</v>
       </c>
       <c r="F72" s="85">
-        <v>17.489965999999999</v>
+        <v>17.562203</v>
       </c>
       <c r="G72" s="86">
-        <v>82.884754000000001</v>
+        <v>82.869978000000003</v>
       </c>
       <c r="H72" s="87">
-        <v>41898.635675999998</v>
+        <v>41991.127982999998</v>
       </c>
       <c r="I72" s="88">
-        <v>30936.563429999998</v>
+        <v>31047.226957999999</v>
       </c>
       <c r="J72" s="88">
-        <v>2040.6963450000001</v>
+        <v>2095.131774</v>
       </c>
       <c r="K72" s="88">
-        <v>56578.624632999999</v>
+        <v>56807.748649000001</v>
       </c>
       <c r="L72" s="86">
-        <v>220939.244722</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>220885.518147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="76"/>
       <c r="B73" s="83" t="s">
         <v>138</v>
       </c>
       <c r="C73" s="84">
-        <v>22.643834999999999</v>
+        <v>22.237172000000001</v>
       </c>
       <c r="D73" s="85">
-        <v>19.351509</v>
+        <v>19.006219999999999</v>
       </c>
       <c r="E73" s="85">
-        <v>0.30705399999999999</v>
+        <v>0.28231800000000001</v>
       </c>
       <c r="F73" s="85">
-        <v>26.140806000000001</v>
+        <v>25.698943</v>
       </c>
       <c r="G73" s="86">
-        <v>64.371253999999993</v>
+        <v>63.330446000000002</v>
       </c>
       <c r="H73" s="87">
-        <v>182397.60863100001</v>
+        <v>182398.452334</v>
       </c>
       <c r="I73" s="88">
-        <v>155781.80908000001</v>
+        <v>155780.671413</v>
       </c>
       <c r="J73" s="88">
-        <v>2183.378138</v>
+        <v>2027.6585419999999</v>
       </c>
       <c r="K73" s="88">
-        <v>213724.068035</v>
+        <v>213949.79669799999</v>
       </c>
       <c r="L73" s="86">
-        <v>501013.26301699999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>501876.078691</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="76"/>
       <c r="B74" s="83" t="s">
         <v>139</v>
       </c>
       <c r="C74" s="84">
-        <v>29.673382</v>
+        <v>29.673379000000001</v>
       </c>
       <c r="D74" s="85">
-        <v>21.135947999999999</v>
+        <v>21.135945</v>
       </c>
       <c r="E74" s="85">
         <v>9.8046999999999995E-2</v>
       </c>
       <c r="F74" s="85">
-        <v>34.303970999999997</v>
+        <v>34.303966000000003</v>
       </c>
       <c r="G74" s="86">
-        <v>62.316941</v>
+        <v>62.316932000000001</v>
       </c>
       <c r="H74" s="87">
         <v>126512.093588</v>
@@ -4320,7 +4320,7 @@
         <v>243272.43190900001</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="76"/>
       <c r="B75" s="83" t="s">
         <v>140</v>
@@ -4338,7 +4338,7 @@
         <v>19.451343000000001</v>
       </c>
       <c r="G75" s="97">
-        <v>78.950210999999996</v>
+        <v>79.045993999999993</v>
       </c>
       <c r="H75" s="98">
         <v>22730.156361000001</v>
@@ -4353,172 +4353,172 @@
         <v>20972.191005000001</v>
       </c>
       <c r="L75" s="97">
-        <v>84283.488217999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84429.443186000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="76"/>
       <c r="B76" s="100" t="s">
         <v>141</v>
       </c>
       <c r="C76" s="101">
-        <v>17.051271</v>
+        <v>17.057231999999999</v>
       </c>
       <c r="D76" s="102">
-        <v>12.49943</v>
+        <v>12.513389999999999</v>
       </c>
       <c r="E76" s="102">
-        <v>8.1261E-2</v>
+        <v>7.9999000000000001E-2</v>
       </c>
       <c r="F76" s="102">
-        <v>21.316351000000001</v>
+        <v>21.327224999999999</v>
       </c>
       <c r="G76" s="103">
-        <v>57.036900000000003</v>
+        <v>57.132728</v>
       </c>
       <c r="H76" s="104">
-        <v>582258.98559699999</v>
+        <v>581919.64870200003</v>
       </c>
       <c r="I76" s="105">
-        <v>376138.60935799999</v>
+        <v>375865.551806</v>
       </c>
       <c r="J76" s="105">
-        <v>2120.6184750000002</v>
+        <v>2101.7929640000002</v>
       </c>
       <c r="K76" s="105">
-        <v>720154.52540299995</v>
+        <v>719714.69436700002</v>
       </c>
       <c r="L76" s="103">
-        <v>2120766.7611119999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2121280.0694960002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="76"/>
       <c r="B77" s="83" t="s">
         <v>142</v>
       </c>
       <c r="C77" s="84">
-        <v>32.261127999999999</v>
+        <v>32.228374000000002</v>
       </c>
       <c r="D77" s="85">
-        <v>21.854924</v>
+        <v>21.847757000000001</v>
       </c>
       <c r="E77" s="85">
-        <v>2.3758999999999999E-2</v>
+        <v>2.3726000000000001E-2</v>
       </c>
       <c r="F77" s="85">
-        <v>36.235633</v>
+        <v>36.218671999999998</v>
       </c>
       <c r="G77" s="86">
-        <v>78.676390999999995</v>
+        <v>78.607949000000005</v>
       </c>
       <c r="H77" s="87">
-        <v>1100420.0986649999</v>
+        <v>1100420.129863</v>
       </c>
       <c r="I77" s="88">
-        <v>745032.83013899997</v>
+        <v>745690.45649600006</v>
       </c>
       <c r="J77" s="88">
         <v>676.66212199999995</v>
       </c>
       <c r="K77" s="88">
-        <v>1234312.9983389999</v>
+        <v>1234858.781403</v>
       </c>
       <c r="L77" s="86">
-        <v>2622236.7164070001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2622601.8050279999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="76"/>
       <c r="B78" s="83" t="s">
         <v>143</v>
       </c>
       <c r="C78" s="84">
-        <v>45.833978999999999</v>
+        <v>45.843415999999998</v>
       </c>
       <c r="D78" s="85">
-        <v>26.351002000000001</v>
+        <v>26.344861000000002</v>
       </c>
       <c r="E78" s="85">
-        <v>0.66917199999999999</v>
+        <v>0.66878899999999997</v>
       </c>
       <c r="F78" s="85">
-        <v>50.562139000000002</v>
+        <v>50.577756000000001</v>
       </c>
       <c r="G78" s="86">
-        <v>88.213199000000003</v>
+        <v>88.265311999999994</v>
       </c>
       <c r="H78" s="87">
-        <v>8129944.8249850003</v>
+        <v>8131391.1426419998</v>
       </c>
       <c r="I78" s="88">
-        <v>4696352.6449119998</v>
+        <v>4694936.0079220003</v>
       </c>
       <c r="J78" s="88">
-        <v>85631.060813999997</v>
+        <v>85634.848098999995</v>
       </c>
       <c r="K78" s="88">
-        <v>8936838.8424570002</v>
+        <v>8939329.2444230001</v>
       </c>
       <c r="L78" s="86">
-        <v>15473017.124594999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15481177.744302001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="76"/>
       <c r="B79" s="89" t="s">
         <v>144</v>
       </c>
       <c r="C79" s="90">
-        <v>36.886285000000001</v>
+        <v>36.831937000000003</v>
       </c>
       <c r="D79" s="91">
-        <v>22.940041000000001</v>
+        <v>22.898555000000002</v>
       </c>
       <c r="E79" s="91">
-        <v>0.19090299999999999</v>
+        <v>0.190465</v>
       </c>
       <c r="F79" s="91">
-        <v>43.708331000000001</v>
+        <v>43.669463</v>
       </c>
       <c r="G79" s="92">
-        <v>108.778068</v>
+        <v>108.796995</v>
       </c>
       <c r="H79" s="93">
-        <v>21996638.561291002</v>
+        <v>21998173.280611999</v>
       </c>
       <c r="I79" s="94">
-        <v>11927275.578989999</v>
+        <v>11926630.839395</v>
       </c>
       <c r="J79" s="94">
-        <v>83298.847508999999</v>
+        <v>83310.564421999996</v>
       </c>
       <c r="K79" s="94">
-        <v>26296540.911453001</v>
+        <v>26315078.909221001</v>
       </c>
       <c r="L79" s="92">
-        <v>67414398.561552003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67544791.31216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="76"/>
       <c r="B80" s="100" t="s">
         <v>145</v>
       </c>
       <c r="C80" s="101">
-        <v>27.511341000000002</v>
+        <v>27.505998000000002</v>
       </c>
       <c r="D80" s="102">
-        <v>18.960992000000001</v>
+        <v>18.957021999999998</v>
       </c>
       <c r="E80" s="102">
-        <v>0.118892</v>
+        <v>0.118869</v>
       </c>
       <c r="F80" s="102">
-        <v>28.97936</v>
+        <v>28.973731999999998</v>
       </c>
       <c r="G80" s="103">
-        <v>61.561388000000001</v>
+        <v>61.547389000000003</v>
       </c>
       <c r="H80" s="104">
         <v>108748.96294500001</v>
@@ -4533,172 +4533,172 @@
         <v>112920.432208</v>
       </c>
       <c r="L80" s="103">
-        <v>215699.44593399999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>215694.094824</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="76"/>
       <c r="B81" s="83" t="s">
         <v>146</v>
       </c>
       <c r="C81" s="84">
-        <v>29.893751999999999</v>
+        <v>29.279904999999999</v>
       </c>
       <c r="D81" s="85">
-        <v>16.201653</v>
+        <v>15.849579</v>
       </c>
       <c r="E81" s="85">
-        <v>3.3467999999999998E-2</v>
+        <v>3.3392999999999999E-2</v>
       </c>
       <c r="F81" s="85">
-        <v>30.452732000000001</v>
+        <v>29.79834</v>
       </c>
       <c r="G81" s="86">
-        <v>31.371414000000001</v>
+        <v>30.68394</v>
       </c>
       <c r="H81" s="87">
-        <v>1460347.1355999999</v>
+        <v>1463214.4955490001</v>
       </c>
       <c r="I81" s="88">
-        <v>712745.82490600005</v>
+        <v>712745.82823999994</v>
       </c>
       <c r="J81" s="88">
-        <v>2155.9716539999999</v>
+        <v>2189.0013450000001</v>
       </c>
       <c r="K81" s="88">
-        <v>1475170.622579</v>
+        <v>1475564.979151</v>
       </c>
       <c r="L81" s="86">
-        <v>1522818.8438039999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1522350.04468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="76"/>
       <c r="B82" s="83" t="s">
         <v>147</v>
       </c>
       <c r="C82" s="84">
-        <v>17.003889999999998</v>
+        <v>15.858511</v>
       </c>
       <c r="D82" s="85">
-        <v>12.922376999999999</v>
+        <v>12.065185</v>
       </c>
       <c r="E82" s="85">
-        <v>0.40205099999999999</v>
+        <v>0.359875</v>
       </c>
       <c r="F82" s="85">
-        <v>22.803546000000001</v>
+        <v>21.30302</v>
       </c>
       <c r="G82" s="86">
-        <v>68.128851999999995</v>
+        <v>63.880752000000001</v>
       </c>
       <c r="H82" s="87">
-        <v>421352.393384</v>
+        <v>421265.09964700002</v>
       </c>
       <c r="I82" s="88">
-        <v>327878.96519000002</v>
+        <v>328109.12487300002</v>
       </c>
       <c r="J82" s="88">
-        <v>9598.2356479999999</v>
+        <v>9214.1497220000001</v>
       </c>
       <c r="K82" s="88">
-        <v>559598.73956000002</v>
+        <v>560464.03856799996</v>
       </c>
       <c r="L82" s="86">
-        <v>1549662.0403199999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1558933.1746060001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="76"/>
       <c r="B83" s="89" t="s">
         <v>148</v>
       </c>
       <c r="C83" s="90">
-        <v>30.801445000000001</v>
+        <v>30.779467</v>
       </c>
       <c r="D83" s="91">
-        <v>19.385093999999999</v>
+        <v>19.368283000000002</v>
       </c>
       <c r="E83" s="91">
-        <v>0.13702</v>
+        <v>0.13675499999999999</v>
       </c>
       <c r="F83" s="91">
-        <v>37.187483999999998</v>
+        <v>37.175054000000003</v>
       </c>
       <c r="G83" s="92">
-        <v>90.652141999999998</v>
+        <v>90.672409000000002</v>
       </c>
       <c r="H83" s="93">
-        <v>29351564.108336002</v>
+        <v>29355226.833565999</v>
       </c>
       <c r="I83" s="94">
-        <v>16467909.504835</v>
+        <v>16468082.221313</v>
       </c>
       <c r="J83" s="94">
-        <v>102187.82410300001</v>
+        <v>102173.025412</v>
       </c>
       <c r="K83" s="94">
-        <v>35344856.913975999</v>
+        <v>35365857.606689997</v>
       </c>
       <c r="L83" s="92">
-        <v>88345582.980602995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88472148.717993006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="76"/>
       <c r="B84" s="100" t="s">
         <v>149</v>
       </c>
       <c r="C84" s="101">
-        <v>15.401648</v>
+        <v>15.187386</v>
       </c>
       <c r="D84" s="102">
-        <v>10.078754</v>
+        <v>10.048888</v>
       </c>
       <c r="E84" s="102">
-        <v>2.0076860000000001</v>
+        <v>1.871405</v>
       </c>
       <c r="F84" s="102">
-        <v>19.376518999999998</v>
+        <v>19.223005000000001</v>
       </c>
       <c r="G84" s="103">
-        <v>78.707606999999996</v>
+        <v>78.414017999999999</v>
       </c>
       <c r="H84" s="104">
-        <v>47872.504149</v>
+        <v>47519.515565000002</v>
       </c>
       <c r="I84" s="105">
-        <v>31476.226707000002</v>
+        <v>31586.890234999999</v>
       </c>
       <c r="J84" s="105">
-        <v>6283.292289</v>
+        <v>5899.2063619999999</v>
       </c>
       <c r="K84" s="105">
-        <v>60503.659780000002</v>
+        <v>60457.700982000002</v>
       </c>
       <c r="L84" s="103">
-        <v>197372.91737499999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>198268.16297999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="76"/>
       <c r="B85" s="106" t="s">
         <v>150</v>
       </c>
       <c r="C85" s="84">
-        <v>13.198662000000001</v>
+        <v>13.198342999999999</v>
       </c>
       <c r="D85" s="85">
-        <v>5.7369149999999998</v>
+        <v>5.736796</v>
       </c>
       <c r="E85" s="85">
-        <v>3.8170220000000001</v>
+        <v>3.8168470000000001</v>
       </c>
       <c r="F85" s="85">
-        <v>13.853621</v>
+        <v>13.853313999999999</v>
       </c>
       <c r="G85" s="86">
-        <v>38.346981</v>
+        <v>38.357717000000001</v>
       </c>
       <c r="H85" s="87">
         <v>3913.0613579999999</v>
@@ -4713,103 +4713,103 @@
         <v>4154.8426769999996</v>
       </c>
       <c r="L85" s="86">
-        <v>16312.476054000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16314.615145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="76"/>
       <c r="B86" s="83" t="s">
         <v>151</v>
       </c>
       <c r="C86" s="84">
-        <v>16.129200999999998</v>
+        <v>14.734966999999999</v>
       </c>
       <c r="D86" s="85">
-        <v>12.156829</v>
+        <v>11.107822000000001</v>
       </c>
       <c r="E86" s="85">
-        <v>0.15243300000000001</v>
+        <v>0.13921</v>
       </c>
       <c r="F86" s="85">
-        <v>21.847847999999999</v>
+        <v>19.986536999999998</v>
       </c>
       <c r="G86" s="86">
-        <v>67.555892999999998</v>
+        <v>62.090147000000002</v>
       </c>
       <c r="H86" s="87">
-        <v>266240.72649899998</v>
+        <v>266348.72037900001</v>
       </c>
       <c r="I86" s="88">
-        <v>203336.44589800001</v>
+        <v>203455.94205300001</v>
       </c>
       <c r="J86" s="88">
         <v>2837.5362249999998</v>
       </c>
       <c r="K86" s="88">
-        <v>362258.26817699999</v>
+        <v>362992.68919200002</v>
       </c>
       <c r="L86" s="86">
-        <v>1084517.0252080001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1092882.369714</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="76"/>
       <c r="B87" s="83" t="s">
         <v>152</v>
       </c>
       <c r="C87" s="84">
-        <v>18.847023</v>
+        <v>18.859105</v>
       </c>
       <c r="D87" s="85">
-        <v>15.822286</v>
+        <v>15.835324</v>
       </c>
       <c r="E87" s="85">
-        <v>9.4427999999999998E-2</v>
+        <v>9.4337000000000004E-2</v>
       </c>
       <c r="F87" s="85">
-        <v>26.532651999999999</v>
+        <v>26.561689999999999</v>
       </c>
       <c r="G87" s="86">
-        <v>73.973355999999995</v>
+        <v>73.974637999999999</v>
       </c>
       <c r="H87" s="87">
-        <v>983093.382996</v>
+        <v>983254.57342300005</v>
       </c>
       <c r="I87" s="88">
-        <v>801534.13628199999</v>
+        <v>801306.89702399995</v>
       </c>
       <c r="J87" s="88">
-        <v>6179.7930340000003</v>
+        <v>6194.9067779999996</v>
       </c>
       <c r="K87" s="88">
-        <v>1378553.9003270001</v>
+        <v>1379232.9247699999</v>
       </c>
       <c r="L87" s="86">
-        <v>3819841.3595139999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3814389.4927210002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="76"/>
       <c r="B88" s="83" t="s">
         <v>153</v>
       </c>
       <c r="C88" s="84">
-        <v>29.031175999999999</v>
+        <v>29.079720999999999</v>
       </c>
       <c r="D88" s="85">
-        <v>21.858398999999999</v>
+        <v>21.882449000000001</v>
       </c>
       <c r="E88" s="85">
-        <v>2.7820000000000001E-2</v>
+        <v>2.7848999999999999E-2</v>
       </c>
       <c r="F88" s="85">
-        <v>33.471217000000003</v>
+        <v>33.526628000000002</v>
       </c>
       <c r="G88" s="86">
-        <v>62.411805999999999</v>
+        <v>62.481586999999998</v>
       </c>
       <c r="H88" s="87">
-        <v>204545.212531</v>
+        <v>204702.913497</v>
       </c>
       <c r="I88" s="88">
         <v>147976.69231799999</v>
@@ -4818,157 +4818,157 @@
         <v>185.59145799999999</v>
       </c>
       <c r="K88" s="88">
-        <v>235481.97592900001</v>
+        <v>235658.81271999999</v>
       </c>
       <c r="L88" s="86">
-        <v>429035.65124400001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>429045.07440699998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="76"/>
       <c r="B89" s="83" t="s">
         <v>154</v>
       </c>
       <c r="C89" s="84">
-        <v>25.632484999999999</v>
+        <v>25.568728</v>
       </c>
       <c r="D89" s="85">
-        <v>15.377779</v>
+        <v>15.338601000000001</v>
       </c>
       <c r="E89" s="85">
-        <v>1.1091999999999999E-2</v>
+        <v>1.1061E-2</v>
       </c>
       <c r="F89" s="85">
-        <v>30.586696</v>
+        <v>30.513587000000001</v>
       </c>
       <c r="G89" s="86">
-        <v>64.230193</v>
+        <v>64.068534999999997</v>
       </c>
       <c r="H89" s="87">
-        <v>6941431.6461180001</v>
+        <v>6941410.4489040002</v>
       </c>
       <c r="I89" s="88">
-        <v>4036148.1888009999</v>
+        <v>4036131.7912320001</v>
       </c>
       <c r="J89" s="88">
-        <v>2096.852214</v>
+        <v>2096.1821850000001</v>
       </c>
       <c r="K89" s="88">
-        <v>8332636.7687560003</v>
+        <v>8333160.9232740002</v>
       </c>
       <c r="L89" s="86">
-        <v>17802940.053660002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17802445.720272001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="76"/>
       <c r="B90" s="89" t="s">
         <v>155</v>
       </c>
       <c r="C90" s="90">
-        <v>37.188060999999998</v>
+        <v>37.06259</v>
       </c>
       <c r="D90" s="91">
-        <v>22.913547000000001</v>
+        <v>22.818871999999999</v>
       </c>
       <c r="E90" s="91">
-        <v>0.207534</v>
+        <v>0.20660999999999999</v>
       </c>
       <c r="F90" s="91">
-        <v>43.296289999999999</v>
+        <v>43.165681999999997</v>
       </c>
       <c r="G90" s="92">
-        <v>102.821079</v>
+        <v>102.62529600000001</v>
       </c>
       <c r="H90" s="93">
-        <v>22879842.197834998</v>
+        <v>22886232.289799999</v>
       </c>
       <c r="I90" s="94">
-        <v>12339129.047552999</v>
+        <v>12339545.404191</v>
       </c>
       <c r="J90" s="94">
-        <v>95114.838636999993</v>
+        <v>95118.625922000007</v>
       </c>
       <c r="K90" s="94">
-        <v>27097826.742355999</v>
+        <v>27118018.612681001</v>
       </c>
       <c r="L90" s="92">
-        <v>68086430.222103998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68218466.991361007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="76"/>
       <c r="B91" s="100" t="s">
         <v>156</v>
       </c>
       <c r="C91" s="101">
-        <v>15.992760000000001</v>
+        <v>15.908275</v>
       </c>
       <c r="D91" s="102">
-        <v>12.177401</v>
+        <v>12.173342999999999</v>
       </c>
       <c r="E91" s="102">
-        <v>1.2199139999999999</v>
+        <v>1.1608309999999999</v>
       </c>
       <c r="F91" s="102">
-        <v>18.911598999999999</v>
+        <v>18.937269000000001</v>
       </c>
       <c r="G91" s="103">
-        <v>69.738530999999995</v>
+        <v>69.906827000000007</v>
       </c>
       <c r="H91" s="104">
-        <v>105611.86758200001</v>
+        <v>105368.010546</v>
       </c>
       <c r="I91" s="105">
-        <v>79746.576593999998</v>
+        <v>79977.873944999999</v>
       </c>
       <c r="J91" s="105">
-        <v>8477.3789870000001</v>
+        <v>8093.29306</v>
       </c>
       <c r="K91" s="105">
-        <v>126799.80239300001</v>
+        <v>127476.236303</v>
       </c>
       <c r="L91" s="103">
-        <v>416103.39876900002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>419150.81664500001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="76"/>
       <c r="B92" s="83" t="s">
         <v>157</v>
       </c>
       <c r="C92" s="84">
-        <v>12.289379</v>
+        <v>12.243478</v>
       </c>
       <c r="D92" s="85">
-        <v>8.5819550000000007</v>
+        <v>8.5744410000000002</v>
       </c>
       <c r="E92" s="85">
-        <v>0.578426</v>
+        <v>0.58566700000000005</v>
       </c>
       <c r="F92" s="85">
-        <v>15.577881</v>
+        <v>15.539992</v>
       </c>
       <c r="G92" s="86">
-        <v>40.361975999999999</v>
+        <v>40.539090999999999</v>
       </c>
       <c r="H92" s="87">
-        <v>73764.978766999993</v>
+        <v>73465.897270999994</v>
       </c>
       <c r="I92" s="88">
-        <v>49723.977058999997</v>
+        <v>49450.919506999999</v>
       </c>
       <c r="J92" s="88">
-        <v>3079.3679670000001</v>
+        <v>3093.5721469999999</v>
       </c>
       <c r="K92" s="88">
-        <v>95067.481035999997</v>
+        <v>94683.007641000004</v>
       </c>
       <c r="L92" s="86">
-        <v>248420.45827800001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>248935.90575400001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="76"/>
       <c r="B93" s="83" t="s">
         <v>158</v>
@@ -4983,10 +4983,10 @@
         <v>2.115335</v>
       </c>
       <c r="F93" s="85">
-        <v>29.910066</v>
+        <v>29.913786000000002</v>
       </c>
       <c r="G93" s="86">
-        <v>90.481680999999995</v>
+        <v>91.242889000000005</v>
       </c>
       <c r="H93" s="87">
         <v>4673.6940919999997</v>
@@ -4998,193 +4998,193 @@
         <v>397.62201399999998</v>
       </c>
       <c r="K93" s="88">
-        <v>5569.0918119999997</v>
+        <v>5569.7514469999996</v>
       </c>
       <c r="L93" s="86">
-        <v>16902.868041999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17044.592197999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="76"/>
       <c r="B94" s="83" t="s">
         <v>159</v>
       </c>
       <c r="C94" s="84">
-        <v>17.803455</v>
+        <v>17.767537000000001</v>
       </c>
       <c r="D94" s="85">
-        <v>13.679781999999999</v>
+        <v>13.643217999999999</v>
       </c>
       <c r="E94" s="85">
-        <v>0.28274700000000003</v>
+        <v>0.28905900000000001</v>
       </c>
       <c r="F94" s="85">
-        <v>18.935214999999999</v>
+        <v>18.899913000000002</v>
       </c>
       <c r="G94" s="86">
-        <v>115.047884</v>
+        <v>114.84236</v>
       </c>
       <c r="H94" s="87">
-        <v>120933.21690699999</v>
+        <v>120963.54932799999</v>
       </c>
       <c r="I94" s="88">
-        <v>91030.655402999997</v>
+        <v>91030.668957999995</v>
       </c>
       <c r="J94" s="88">
-        <v>2300.9768789999998</v>
+        <v>2334.00657</v>
       </c>
       <c r="K94" s="88">
-        <v>127307.22334</v>
+        <v>127361.873928</v>
       </c>
       <c r="L94" s="86">
-        <v>802915.12964099995</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>803280.27267099998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="76"/>
       <c r="B95" s="83" t="s">
         <v>160</v>
       </c>
       <c r="C95" s="84">
-        <v>16.640711</v>
+        <v>16.128506000000002</v>
       </c>
       <c r="D95" s="85">
-        <v>12.282949</v>
+        <v>11.927939</v>
       </c>
       <c r="E95" s="85">
-        <v>1.3934500000000001</v>
+        <v>1.3550489999999999</v>
       </c>
       <c r="F95" s="85">
-        <v>21.486039000000002</v>
+        <v>20.857928999999999</v>
       </c>
       <c r="G95" s="86">
-        <v>56.617713000000002</v>
+        <v>54.813051999999999</v>
       </c>
       <c r="H95" s="87">
-        <v>56401.521536</v>
+        <v>56454.054880000003</v>
       </c>
       <c r="I95" s="88">
-        <v>41668.839840000001</v>
+        <v>41778.365700000002</v>
       </c>
       <c r="J95" s="88">
-        <v>4493.9402760000003</v>
+        <v>4516.5139449999997</v>
       </c>
       <c r="K95" s="88">
-        <v>72343.351437999998</v>
+        <v>72523.497378999993</v>
       </c>
       <c r="L95" s="86">
-        <v>185900.17078799999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185842.29035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="76"/>
       <c r="B96" s="89" t="s">
         <v>161</v>
       </c>
       <c r="C96" s="90">
-        <v>21.962743</v>
+        <v>22.249389999999998</v>
       </c>
       <c r="D96" s="91">
-        <v>14.903153</v>
+        <v>15.106883</v>
       </c>
       <c r="E96" s="91">
-        <v>0.553979</v>
+        <v>0.56153299999999995</v>
       </c>
       <c r="F96" s="91">
-        <v>25.058176</v>
+        <v>25.384657000000001</v>
       </c>
       <c r="G96" s="92">
-        <v>35.455348000000001</v>
+        <v>35.872906999999998</v>
       </c>
       <c r="H96" s="93">
-        <v>132699.525486</v>
+        <v>132701.104547</v>
       </c>
       <c r="I96" s="94">
-        <v>86447.269753</v>
+        <v>86449.319885000004</v>
       </c>
       <c r="J96" s="94">
-        <v>2447.458772</v>
+        <v>2447.2848239999998</v>
       </c>
       <c r="K96" s="94">
-        <v>152367.22580499999</v>
+        <v>152366.38967199999</v>
       </c>
       <c r="L96" s="92">
-        <v>221186.56689799999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>220781.749923</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="76"/>
       <c r="B97" s="100" t="s">
         <v>162</v>
       </c>
       <c r="C97" s="101">
-        <v>14.685140000000001</v>
+        <v>13.029775000000001</v>
       </c>
       <c r="D97" s="102">
-        <v>9.7706870000000006</v>
+        <v>8.6703069999999993</v>
       </c>
       <c r="E97" s="102">
-        <v>0.64000699999999999</v>
+        <v>0.54375799999999996</v>
       </c>
       <c r="F97" s="102">
-        <v>18.102283</v>
+        <v>16.086425999999999</v>
       </c>
       <c r="G97" s="103">
-        <v>57.312385999999996</v>
+        <v>50.797029000000002</v>
       </c>
       <c r="H97" s="104">
-        <v>206565.20733899999</v>
+        <v>206199.57881199999</v>
       </c>
       <c r="I97" s="105">
-        <v>131884.98579400001</v>
+        <v>131994.511654</v>
       </c>
       <c r="J97" s="105">
-        <v>8782.856957</v>
+        <v>8398.7710299999999</v>
       </c>
       <c r="K97" s="105">
-        <v>256424.066444</v>
+        <v>256390.135951</v>
       </c>
       <c r="L97" s="103">
-        <v>731374.70389</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>731849.84825799998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="76"/>
       <c r="B98" s="89" t="s">
         <v>163</v>
       </c>
       <c r="C98" s="90">
-        <v>14.073286</v>
+        <v>13.931592</v>
       </c>
       <c r="D98" s="91">
-        <v>7.2102870000000001</v>
+        <v>7.1288609999999997</v>
       </c>
       <c r="E98" s="91">
-        <v>0.246369</v>
+        <v>0.24449699999999999</v>
       </c>
       <c r="F98" s="91">
-        <v>17.539477999999999</v>
+        <v>17.374965</v>
       </c>
       <c r="G98" s="92">
-        <v>58.577128000000002</v>
+        <v>58.129317</v>
       </c>
       <c r="H98" s="93">
-        <v>249466.71526699999</v>
+        <v>249169.93179900001</v>
       </c>
       <c r="I98" s="94">
-        <v>120386.51767099999</v>
+        <v>120115.758147</v>
       </c>
       <c r="J98" s="94">
-        <v>3931.0112709999999</v>
+        <v>3945.215451</v>
       </c>
       <c r="K98" s="94">
-        <v>306807.48243899998</v>
+        <v>306559.05129099998</v>
       </c>
       <c r="L98" s="92">
-        <v>1003503.789586</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1003045.736542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="107"/>
       <c r="B99" s="108"/>
       <c r="C99" s="96"/>
@@ -5198,7 +5198,7 @@
       <c r="K99" s="99"/>
       <c r="L99" s="96"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>164</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="K100" s="110"/>
       <c r="L100" s="109"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>165</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="K101" s="110"/>
       <c r="L101" s="109"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
@@ -5243,7 +5243,7 @@
       <c r="K102" s="110"/>
       <c r="L102" s="109"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
@@ -5258,7 +5258,7 @@
       <c r="K103" s="110"/>
       <c r="L103" s="109"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="K104" s="110"/>
       <c r="L104" s="109"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C105" s="109"/>
       <c r="D105" s="109"/>
       <c r="E105" s="109"/>
@@ -5285,7 +5285,7 @@
       <c r="K105" s="110"/>
       <c r="L105" s="109"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="111"/>
       <c r="C106" s="109"/>
       <c r="D106" s="109"/>
@@ -5298,7 +5298,7 @@
       <c r="K106" s="110"/>
       <c r="L106" s="109"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B107" s="112" t="s">
         <v>169</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="K107" s="110"/>
       <c r="L107" s="109"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="109"/>
       <c r="D108" s="109"/>
@@ -5326,7 +5326,7 @@
       <c r="K108" s="110"/>
       <c r="L108" s="109"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="116" t="s">
         <v>171</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="K109" s="110"/>
       <c r="L109" s="109"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="116" t="s">
         <v>172</v>
       </c>
@@ -5356,7 +5356,7 @@
       <c r="K110" s="110"/>
       <c r="L110" s="109"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="116" t="s">
         <v>173</v>
       </c>
@@ -5371,7 +5371,7 @@
       <c r="K111" s="110"/>
       <c r="L111" s="109"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>170</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="K112" s="110"/>
       <c r="L112" s="109"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="113"/>
       <c r="C113" s="109"/>
       <c r="D113" s="109"/>
@@ -5401,12 +5401,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AA83B53D-DF39-4D58-A2BD-5D9011D4133E}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{6EF38E30-1464-4FED-BF2D-DEA755F548EB}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{97E4197C-18C3-4391-9FC8-A28E71035D2B}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{0EA84F4F-EDED-490E-A71F-0C12377B46D6}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{CF9EDD7A-93DF-4699-8F0F-B559B017583B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{FB6FD043-5790-4A07-B648-1E2ADFEC2A04}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F8D36F5D-E835-46E7-AD67-6DFC463F430D}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{3796DABE-E7AB-40E2-8FD0-C558EBF12687}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{4B3BD511-07AB-47EC-8707-58FACD396C16}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{3EC4CBD3-9E86-40CF-AD0E-652285947712}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{4A0FCCEE-31DC-42DE-9088-3E24C9D7504A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{890FDF84-33B9-4FAA-8BD3-5E502E34F9A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab13.xlsx
+++ b/AfDD_2025_Annex_Table_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E0E9E3-BB65-45C9-AE1A-A670F228097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F44A1B7D-9AAA-49E1-AB66-EE9895892AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{6D2D0658-E909-4647-9ACD-87176E82A8B0}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{F563BDEC-EC6D-4B5F-B82E-B9A863EF4EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>General government taxes (millions of USD), 2021</t>
   </si>
   <si>
-    <t>General government revenue, grants  (millions of USD), 2021</t>
+    <t>General government revenue, grants (millions of USD), 2021</t>
   </si>
   <si>
     <t>General government expenditure (millions of USD), 2021</t>
@@ -540,7 +540,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: IMF World Economic Outlook Database October 2025.</t>
@@ -549,16 +549,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,16 +700,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -936,7 +926,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1264,7 +1254,6 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
@@ -1549,11 +1538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBA9E70-6E04-47FB-9E02-436C362C622E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F80E4B-5C3B-47B7-9C64-78AB79573B4E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1561,9 +1550,9 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.1796875" style="114" customWidth="1"/>
-    <col min="8" max="11" width="14.1796875" style="115" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="114" customWidth="1"/>
+    <col min="3" max="7" width="14.1796875" style="113" customWidth="1"/>
+    <col min="8" max="11" width="14.1796875" style="114" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="113" customWidth="1"/>
     <col min="13" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5298,10 +5287,8 @@
       <c r="K106" s="110"/>
       <c r="L106" s="109"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B107" s="112" t="s">
-        <v>169</v>
-      </c>
+    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="111"/>
       <c r="C107" s="109"/>
       <c r="D107" s="109"/>
       <c r="E107" s="109"/>
@@ -5314,7 +5301,9 @@
       <c r="L107" s="109"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="115" t="s">
+        <v>169</v>
+      </c>
       <c r="C108" s="109"/>
       <c r="D108" s="109"/>
       <c r="E108" s="109"/>
@@ -5327,9 +5316,7 @@
       <c r="L108" s="109"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B109" s="116" t="s">
-        <v>171</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="109"/>
       <c r="D109" s="109"/>
       <c r="E109" s="109"/>
@@ -5342,8 +5329,8 @@
       <c r="L109" s="109"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B110" s="116" t="s">
-        <v>172</v>
+      <c r="B110" s="115" t="s">
+        <v>170</v>
       </c>
       <c r="C110" s="109"/>
       <c r="D110" s="109"/>
@@ -5357,8 +5344,8 @@
       <c r="L110" s="109"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="116" t="s">
-        <v>173</v>
+      <c r="B111" s="115" t="s">
+        <v>171</v>
       </c>
       <c r="C111" s="109"/>
       <c r="D111" s="109"/>
@@ -5372,8 +5359,8 @@
       <c r="L111" s="109"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>170</v>
+      <c r="B112" s="115" t="s">
+        <v>173</v>
       </c>
       <c r="C112" s="109"/>
       <c r="D112" s="109"/>
@@ -5387,7 +5374,9 @@
       <c r="L112" s="109"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B113" s="113"/>
+      <c r="B113" s="115" t="s">
+        <v>172</v>
+      </c>
       <c r="C113" s="109"/>
       <c r="D113" s="109"/>
       <c r="E113" s="109"/>
@@ -5399,17 +5388,29 @@
       <c r="K113" s="110"/>
       <c r="L113" s="109"/>
     </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B114" s="112"/>
+      <c r="C114" s="109"/>
+      <c r="D114" s="109"/>
+      <c r="E114" s="109"/>
+      <c r="F114" s="109"/>
+      <c r="G114" s="109"/>
+      <c r="H114" s="110"/>
+      <c r="I114" s="110"/>
+      <c r="J114" s="110"/>
+      <c r="K114" s="110"/>
+      <c r="L114" s="109"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F8D36F5D-E835-46E7-AD67-6DFC463F430D}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{3796DABE-E7AB-40E2-8FD0-C558EBF12687}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{4B3BD511-07AB-47EC-8707-58FACD396C16}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{3EC4CBD3-9E86-40CF-AD0E-652285947712}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{4A0FCCEE-31DC-42DE-9088-3E24C9D7504A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{890FDF84-33B9-4FAA-8BD3-5E502E34F9A2}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{0FAAE657-BD2F-46A0-96A0-EBB79408D64F}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{701A1AE4-396C-4ED7-9C20-339BE4A89211}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{B36795B1-6BE8-4EC9-B0FB-3B0766FA0CD3}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{70FB0665-7454-4AEE-A896-D87AF3BEEA54}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{8C7AF818-73B0-4B6E-B3FD-364F912F8347}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
